--- a/code/results/Participants/Analysis/Jamovi_analysis/Dobot_questionnaire_V2.0_same_taskset_work_edition.xlsx
+++ b/code/results/Participants/Analysis/Jamovi_analysis/Dobot_questionnaire_V2.0_same_taskset_work_edition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Dobot_questionnaire_V2.0_same_taskset" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="General questions" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="NASA-TLX" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Robot_acted_as_I_expected || took over at the right times" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="320">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -976,22 +977,37 @@
   </si>
   <si>
     <t xml:space="preserve">round4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The robot could anticipate my actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 1-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1010,28 +1026,33 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1039,6 +1060,36 @@
       <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1046,47 +1097,30 @@
       <color rgb="FF0000EE"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFCC0000"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1123,14 +1157,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1147,20 +1187,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF999999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1301,56 +1335,56 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1367,15 +1401,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1383,11 +1417,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1407,15 +1441,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1439,11 +1473,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1467,39 +1501,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Hyperlink" xfId="26"/>
-    <cellStyle name="Status" xfId="27"/>
-    <cellStyle name="Good" xfId="28"/>
-    <cellStyle name="Neutral" xfId="29"/>
-    <cellStyle name="Bad" xfId="30"/>
-    <cellStyle name="Warning" xfId="31"/>
-    <cellStyle name="Error" xfId="32"/>
-    <cellStyle name="Accent" xfId="33"/>
-    <cellStyle name="Accent 1" xfId="34"/>
-    <cellStyle name="Accent 2" xfId="35"/>
-    <cellStyle name="Accent 3" xfId="36"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Accent" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 3" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1564,7 +1602,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart130.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1576,20 +1614,20 @@
         <c:varyColors val="0"/>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="53184333"/>
-        <c:axId val="35343923"/>
+        <c:axId val="8320769"/>
+        <c:axId val="85568201"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53184333"/>
+        <c:axId val="8320769"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="MM/DD/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1599,41 +1637,39 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35343923"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="85568201"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35343923"/>
+        <c:axId val="85568201"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1643,17 +1679,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53184333"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="8320769"/>
+        <c:crosses val="min"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1673,17 +1717,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1699,7 +1732,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1733,57 +1766,14 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet10!$B$14</c:f>
@@ -1821,57 +1811,14 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet10!$C$14</c:f>
@@ -1909,57 +1856,14 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet10!$D$14</c:f>
@@ -1975,11 +1879,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="69069685"/>
-        <c:axId val="6205419"/>
+        <c:axId val="36067671"/>
+        <c:axId val="97025163"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69069685"/>
+        <c:axId val="36067671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,23 +1902,30 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6205419"/>
+        <c:crossAx val="97025163"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6205419"/>
+        <c:axId val="97025163"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2029,7 +1940,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2042,17 +1953,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69069685"/>
+        <c:crossAx val="36067671"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2072,17 +1991,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2098,7 +2006,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2139,57 +2047,14 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet10!$B$16</c:f>
@@ -2248,57 +2113,14 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet10!$C$16</c:f>
@@ -2357,57 +2179,14 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet10!$D$16</c:f>
@@ -2434,17 +2213,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="99030874"/>
-        <c:axId val="49321822"/>
+        <c:axId val="10430074"/>
+        <c:axId val="52244665"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99030874"/>
+        <c:axId val="10430074"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2457,21 +2236,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49321822"/>
+        <c:crossAx val="52244665"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49321822"/>
+        <c:axId val="52244665"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +2272,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2499,16 +2285,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99030874"/>
+        <c:crossAx val="10430074"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2530,17 +2323,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -2556,7 +2338,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2572,6 +2354,11 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
@@ -2580,6 +2367,11 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Collaboration characteristics</a:t>
@@ -2591,17 +2383,11 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.284903646272262"/>
-          <c:y val="0.0277266117304896"/>
+          <c:x val="0.28496583143508"/>
+          <c:y val="0.0278262555749467"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2610,10 +2396,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0651980286206282"/>
-          <c:y val="0.0193035211950723"/>
-          <c:w val="0.570631197672347"/>
-          <c:h val="0.980308468328645"/>
+          <c:x val="0.0652050113895216"/>
+          <c:y val="0.0192941632732209"/>
+          <c:w val="0.570615034168565"/>
+          <c:h val="0.98022105875509"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2644,25 +2430,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -2748,11 +2521,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:cat>
             <c:strRef>
@@ -2802,25 +2570,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -2906,11 +2661,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:cat>
             <c:strRef>
@@ -2960,25 +2710,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -3064,11 +2801,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:cat>
             <c:strRef>
@@ -3118,25 +2850,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -3222,11 +2941,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:cat>
             <c:strRef>
@@ -3276,25 +2990,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -3380,11 +3081,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:cat>
             <c:strRef>
@@ -3412,11 +3108,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="45128172"/>
-        <c:axId val="66858075"/>
+        <c:axId val="48170772"/>
+        <c:axId val="51313789"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45128172"/>
+        <c:axId val="48170772"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,26 +3131,30 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66858075"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="51313789"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66858075"/>
+        <c:axId val="51313789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3479,11 +3179,27 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Means of Likert scale responses</a:t>
@@ -3492,12 +3208,6 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -3512,20 +3222,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45128172"/>
+        <c:crossAx val="48170772"/>
         <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3545,17 +3260,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3571,7 +3275,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3587,6 +3291,11 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
@@ -3595,6 +3304,11 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Task characteristics</a:t>
@@ -3603,12 +3317,6 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3617,10 +3325,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0652264229331118"/>
-          <c:y val="0.0193854802752738"/>
-          <c:w val="0.570657012285596"/>
-          <c:h val="0.980323737520597"/>
+          <c:x val="0.0652016857314871"/>
+          <c:y val="0.019387359441644"/>
+          <c:w val="0.570620108368453"/>
+          <c:h val="0.980224893369523"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3651,25 +3359,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -3743,11 +3438,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:val>
             <c:numRef>
@@ -3786,25 +3476,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -3844,25 +3521,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -3936,11 +3600,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:val>
             <c:numRef>
@@ -3979,25 +3638,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -4015,11 +3661,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="96725242"/>
-        <c:axId val="86092943"/>
+        <c:axId val="3598401"/>
+        <c:axId val="6478215"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96725242"/>
+        <c:axId val="3598401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4038,26 +3684,30 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86092943"/>
+        <c:crossAx val="6478215"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86092943"/>
+        <c:axId val="6478215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4082,11 +3732,27 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Means of Likert scale responses</a:t>
@@ -4095,12 +3761,6 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -4115,20 +3775,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96725242"/>
+        <c:crossAx val="3598401"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4148,17 +3813,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4174,7 +3828,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart135.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4187,11 +3841,27 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Task characteristics</a:t>
@@ -4200,12 +3870,6 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4244,23 +3908,12 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -4298,13 +3951,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:xVal>
             <c:numRef>
@@ -4364,23 +4010,12 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -4418,13 +4053,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:xVal>
             <c:numRef>
@@ -4484,23 +4112,12 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -4538,13 +4155,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:xVal>
             <c:numRef>
@@ -4604,23 +4214,12 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -4658,13 +4257,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:xVal>
             <c:numRef>
@@ -4692,17 +4284,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="16727945"/>
-        <c:axId val="48260248"/>
+        <c:axId val="91801707"/>
+        <c:axId val="40257262"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="16727945"/>
+        <c:axId val="91801707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -4715,21 +4307,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48260248"/>
+        <c:crossAx val="40257262"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48260248"/>
+        <c:axId val="40257262"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4754,11 +4353,27 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Mean of Likert scale answers</a:t>
@@ -4767,14 +4382,8 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4787,16 +4396,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16727945"/>
+        <c:crossAx val="91801707"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4818,17 +4434,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -4844,7 +4449,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart136.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4857,11 +4462,27 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Collaboration characteristics</a:t>
@@ -4870,12 +4491,6 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4914,23 +4529,12 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:xVal>
@@ -4991,23 +4595,12 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:xVal>
@@ -5068,23 +4661,12 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:xVal>
@@ -5145,23 +4727,12 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:xVal>
@@ -5222,23 +4793,12 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:xVal>
@@ -5299,23 +4859,12 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:xVal>
@@ -5344,17 +4893,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="13059621"/>
-        <c:axId val="91888652"/>
+        <c:axId val="83887725"/>
+        <c:axId val="92910148"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13059621"/>
+        <c:axId val="83887725"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5367,21 +4916,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91888652"/>
+        <c:crossAx val="92910148"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91888652"/>
+        <c:axId val="92910148"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5398,7 +4954,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5411,16 +4967,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13059621"/>
+        <c:crossAx val="83887725"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5442,17 +5005,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -5468,7 +5020,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart137.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5484,6 +5036,11 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
@@ -5492,6 +5049,11 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Mean of NASA-TLX over 8 participants</a:t>
@@ -5500,12 +5062,6 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5537,25 +5093,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -5587,14 +5130,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln w="18360">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:val>
             <c:numRef>
@@ -5633,25 +5168,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -5683,14 +5205,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln w="18360">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:val>
             <c:numRef>
@@ -5729,25 +5243,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:errBars>
@@ -5779,14 +5280,6 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:ln w="18360">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
           </c:errBars>
           <c:val>
             <c:numRef>
@@ -5803,11 +5296,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="50249414"/>
-        <c:axId val="9937749"/>
+        <c:axId val="87244298"/>
+        <c:axId val="65163923"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50249414"/>
+        <c:axId val="87244298"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5826,26 +5319,30 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9937749"/>
+        <c:crossAx val="65163923"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9937749"/>
+        <c:axId val="65163923"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5869,11 +5366,27 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Mean of NASA-TLX</a:t>
@@ -5882,12 +5395,6 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -5902,20 +5409,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50249414"/>
+        <c:crossAx val="87244298"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5935,17 +5447,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5961,7 +5462,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart138.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5974,11 +5475,27 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>NASA-TLX: Mental demand</a:t>
@@ -5990,17 +5507,11 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31129183609634"/>
-          <c:y val="0.0344062153163152"/>
+          <c:x val="0.311323171512745"/>
+          <c:y val="0.0345210345210345"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6032,23 +5543,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -6088,23 +5588,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -6144,23 +5633,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -6178,11 +5656,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="73193638"/>
-        <c:axId val="16105462"/>
+        <c:axId val="61513053"/>
+        <c:axId val="670789"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73193638"/>
+        <c:axId val="61513053"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6201,23 +5679,30 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16105462"/>
+        <c:crossAx val="670789"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16105462"/>
+        <c:axId val="670789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6241,11 +5726,27 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Means x5 of NASA-TLX responses</a:t>
@@ -6254,14 +5755,8 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6274,17 +5769,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73193638"/>
+        <c:crossAx val="61513053"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6304,17 +5807,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6330,7 +5822,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart139.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6343,11 +5835,27 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>NASA-TLX: mental dimension over long term</a:t>
@@ -6356,12 +5864,6 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6393,23 +5895,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -6449,23 +5940,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -6505,23 +5985,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -6561,23 +6030,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -6595,11 +6053,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="99621705"/>
-        <c:axId val="45143905"/>
+        <c:axId val="76187137"/>
+        <c:axId val="41001486"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99621705"/>
+        <c:axId val="76187137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6618,23 +6076,30 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45143905"/>
+        <c:crossAx val="41001486"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45143905"/>
+        <c:axId val="41001486"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6649,7 +6114,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6662,17 +6127,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99621705"/>
+        <c:crossAx val="76187137"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6692,17 +6165,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6718,7 +6180,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart140.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6731,11 +6193,27 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>NASA-TLX: Temporal demand</a:t>
@@ -6744,12 +6222,6 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6781,23 +6253,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -6837,23 +6298,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -6893,23 +6343,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -6927,11 +6366,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="20989797"/>
-        <c:axId val="58753680"/>
+        <c:axId val="10294416"/>
+        <c:axId val="99076122"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="20989797"/>
+        <c:axId val="10294416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6950,23 +6389,30 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58753680"/>
+        <c:crossAx val="99076122"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58753680"/>
+        <c:axId val="99076122"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6990,11 +6436,27 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Means x5 of NASA-TLX responses</a:t>
@@ -7003,14 +6465,8 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7023,17 +6479,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20989797"/>
+        <c:crossAx val="10294416"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7053,17 +6517,1190 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>The robot could anticipate my actions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="59915435"/>
+        <c:axId val="51817409"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="59915435"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51817409"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51817409"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59915435"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>The robot acted as I expected</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.83333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="6315943"/>
+        <c:axId val="65441889"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="6315943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65441889"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65441889"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6315943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>The robot took over at the right times, when I needed assistance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0954375"/>
+          <c:y val="0.0293333333333333"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$M$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$O$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="26603483"/>
+        <c:axId val="32220007"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="26603483"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32220007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="32220007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26603483"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -7090,9 +7727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>122760</xdr:colOff>
+      <xdr:colOff>122400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7100,8 +7737,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5564520" y="930240"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="5450040" y="930240"/>
+        <a:ext cx="5607000" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7120,9 +7757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>695160</xdr:colOff>
+      <xdr:colOff>694800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7130,8 +7767,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6942240" y="1200600"/>
-        <a:ext cx="5754240" cy="3236040"/>
+        <a:off x="6789600" y="1200600"/>
+        <a:ext cx="5620680" cy="3235680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7150,9 +7787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>195480</xdr:colOff>
+      <xdr:colOff>195120</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>223920</xdr:rowOff>
+      <xdr:rowOff>223560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7160,8 +7797,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3236760" y="2839320"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="3160440" y="2839320"/>
+        <a:ext cx="5626080" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7185,9 +7822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>44280</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7195,8 +7832,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7467480" y="4797000"/>
-        <a:ext cx="6407280" cy="3713040"/>
+        <a:off x="7381800" y="4797000"/>
+        <a:ext cx="6321240" cy="3712680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7215,9 +7852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>20520</xdr:colOff>
+      <xdr:colOff>20160</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7226,7 +7863,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="870120" y="4800600"/>
-        <a:ext cx="6065280" cy="3713760"/>
+        <a:ext cx="5979240" cy="3713400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7245,9 +7882,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2246400</xdr:colOff>
+      <xdr:colOff>2246040</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7256,7 +7893,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1096560" y="9443880"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5702400" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7275,9 +7912,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2252880</xdr:colOff>
+      <xdr:colOff>2252520</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7285,8 +7922,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20900520" y="5227560"/>
-        <a:ext cx="6707880" cy="3244320"/>
+        <a:off x="20643120" y="5227560"/>
+        <a:ext cx="6650280" cy="3243960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7310,9 +7947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>708840</xdr:colOff>
+      <xdr:colOff>708480</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7320,8 +7957,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1432080" y="5606280"/>
-        <a:ext cx="5677560" cy="3242160"/>
+        <a:off x="1413000" y="5606280"/>
+        <a:ext cx="5543640" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7340,9 +7977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
+      <xdr:colOff>266760</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7350,8 +7987,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4914000" y="10756440"/>
-        <a:ext cx="5754240" cy="3243240"/>
+        <a:off x="4799520" y="10756440"/>
+        <a:ext cx="5620680" cy="3242880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7370,9 +8007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>554400</xdr:colOff>
+      <xdr:colOff>554040</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7381,7 +8018,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="395280" y="22582080"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5626080" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7400,9 +8037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7410,12 +8047,107 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16838280" y="14135400"/>
+        <a:off x="16438320" y="14135400"/>
+        <a:ext cx="5625720" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>116640</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="46440" y="4965840"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>478800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>115920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>549000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6168240" y="4953240"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>86040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>156240</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13090680" y="5087520"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7431,224 +8163,223 @@
   </sheetPr>
   <dimension ref="A1:HC9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BL1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BN1" activeCellId="0" sqref="BN1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="74.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="63.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="90.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="73.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="68.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="88.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="68.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="79.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="60.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="64.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="73.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="74.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="112.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="98.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="97.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="97.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="92.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="58.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="85.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="66.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="56.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="69.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="57.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="58.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="74.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="63.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="90.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="73.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="68.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="88.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="68.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="79.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="60.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="64.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="73.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="74.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="112.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="98.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="97.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="97.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="92.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="58.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="85.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="66.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="56.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="69.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="57.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="58.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="74.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="63.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="90.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="73.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="68.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="88.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="68.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="79.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="60.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="64.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="73.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="74.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="112.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="98.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="97.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="97.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="92.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="58.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="85.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="66.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="0" width="56.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="0" width="69.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="57.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="58.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="74.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="63.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="90.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="73.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="68.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="88.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="0" width="68.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="79.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="0" width="60.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="0" width="64.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="0" width="73.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="0" width="74.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="0" width="112.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="0" width="98.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="0" width="97.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="0" width="97.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="96" style="0" width="92.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="0" width="58.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="0" width="85.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="66.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="56.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="69.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="57.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="58.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="0" width="74.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="0" width="63.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="106" min="106" style="0" width="90.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="107" style="0" width="73.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="108" min="108" style="0" width="68.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="109" min="109" style="0" width="88.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="110" min="110" style="0" width="68.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="111" min="111" style="0" width="79.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="112" min="112" style="0" width="60.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="113" min="113" style="0" width="64.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="114" min="114" style="0" width="73.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="115" min="115" style="0" width="74.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="116" min="116" style="0" width="112.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="117" min="117" style="0" width="98.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="118" min="118" style="0" width="97.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="119" min="119" style="0" width="97.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="120" min="120" style="0" width="92.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="121" min="121" style="0" width="58.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="122" min="122" style="0" width="85.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="123" min="123" style="0" width="66.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="124" min="124" style="0" width="56.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="125" min="125" style="0" width="69.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="126" min="126" style="0" width="57.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="127" min="127" style="0" width="58.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="128" min="128" style="0" width="74.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="129" min="129" style="0" width="63.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="130" min="130" style="0" width="90.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="131" min="131" style="0" width="73.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="132" min="132" style="0" width="68.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="133" min="133" style="0" width="88.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="134" min="134" style="0" width="68.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="135" min="135" style="0" width="79.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="136" min="136" style="0" width="60.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="137" min="137" style="0" width="64.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="138" min="138" style="0" width="73.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="139" min="139" style="0" width="74.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="140" min="140" style="0" width="112.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="141" min="141" style="0" width="98.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="142" min="142" style="0" width="97.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="143" min="143" style="0" width="97.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="144" min="144" style="0" width="92.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="145" min="145" style="0" width="58.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="146" min="146" style="0" width="85.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="147" min="147" style="0" width="66.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="148" min="148" style="0" width="56.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="149" min="149" style="0" width="69.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="150" min="150" style="0" width="57.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="151" min="151" style="0" width="58.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="152" min="152" style="0" width="74.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="153" min="153" style="0" width="63.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="154" min="154" style="0" width="90.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="155" min="155" style="0" width="73.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="156" min="156" style="0" width="68.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="157" min="157" style="0" width="88.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="158" min="158" style="0" width="68.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="159" min="159" style="0" width="79.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="160" min="160" style="0" width="60.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="161" min="161" style="0" width="64.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="162" min="162" style="0" width="73.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="163" min="163" style="0" width="74.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="164" min="164" style="0" width="112.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="165" min="165" style="0" width="98.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="166" min="166" style="0" width="97.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="167" min="167" style="0" width="97.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="168" min="168" style="0" width="92.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="169" min="169" style="0" width="58.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="170" min="170" style="0" width="85.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="171" min="171" style="0" width="66.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="172" min="172" style="0" width="56.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="173" min="173" style="0" width="69.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="174" min="174" style="0" width="57.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="175" min="175" style="0" width="58.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="176" min="176" style="0" width="11.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="177" min="177" style="0" width="74.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="178" min="178" style="0" width="63.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="179" min="179" style="0" width="90.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="180" min="180" style="0" width="73.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="181" min="181" style="0" width="68.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="182" min="182" style="0" width="88.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="183" min="183" style="0" width="68.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="184" min="184" style="0" width="79.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="185" min="185" style="0" width="60.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="186" min="186" style="0" width="64.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="187" min="187" style="0" width="73.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="188" min="188" style="0" width="74.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="189" min="189" style="0" width="112.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="190" min="190" style="0" width="98.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="191" min="191" style="0" width="97.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="192" min="192" style="0" width="97.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="193" min="193" style="0" width="92.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="194" min="194" style="0" width="58.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="195" min="195" style="0" width="85.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="196" min="196" style="0" width="66.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="197" min="197" style="0" width="56.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="198" min="198" style="0" width="69.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="199" min="199" style="0" width="57.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="200" min="200" style="0" width="58.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="201" min="201" style="0" width="11.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="202" min="202" style="0" width="94.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="203" min="203" style="0" width="80.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="204" min="204" style="0" width="92.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="205" min="205" style="0" width="83.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="206" min="206" style="0" width="85.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="207" min="207" style="0" width="101.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="208" min="208" style="0" width="100.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="209" min="209" style="0" width="97.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="210" min="210" style="0" width="62.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="211" min="211" style="0" width="106.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="212" style="0" width="11.34"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.53571428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="73.3010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="89.9030612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="73.1632653061225"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="67.4948979591837"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="68.1683673469388"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="78.9693877551021"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="59.9387755102041"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="72.3571428571429"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="73.4336734693878"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="111.505102040816"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="97.4642857142857"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="96.7908163265306"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="96.25"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="90.984693877551"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="58.3163265306122"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="84.9081632653061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="57.7755102040816"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="73.3010204081633"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="89.9030612244898"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="73.1632653061225"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="67.4948979591837"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="68.1683673469388"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="78.9693877551021"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="59.9387755102041"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="72.3571428571429"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="73.4336734693878"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="111.505102040816"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="97.4642857142857"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="96.7908163265306"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="96.25"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="90.984693877551"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="58.3163265306122"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="84.9081632653061"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="57.7755102040816"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="73.3010204081633"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="89.9030612244898"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="73.1632653061225"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="67.4948979591837"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="68.1683673469388"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="78.9693877551021"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="59.9387755102041"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="72.3571428571429"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="73.4336734693878"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="111.505102040816"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="97.4642857142857"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="96.7908163265306"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="96.25"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="90.984693877551"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="58.3163265306122"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="84.9081632653061"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="57.7755102040816"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="73.3010204081633"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="89.9030612244898"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="73.1632653061225"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="67.4948979591837"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="68.1683673469388"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="78.9693877551021"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="59.9387755102041"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="72.3571428571429"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="73.4336734693878"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="111.505102040816"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="97.4642857142857"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="96.7908163265306"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="96.25"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="90.984693877551"/>
+    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="58.3163265306122"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="84.9081632653061"/>
+    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="102" min="102" style="0" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="57.7755102040816"/>
+    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="73.3010204081633"/>
+    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="89.9030612244898"/>
+    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="73.1632653061225"/>
+    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="67.4948979591837"/>
+    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="68.1683673469388"/>
+    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="78.9693877551021"/>
+    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="59.9387755102041"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="72.3571428571429"/>
+    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="73.4336734693878"/>
+    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="111.505102040816"/>
+    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="97.4642857142857"/>
+    <col collapsed="false" hidden="false" max="118" min="118" style="0" width="96.7908163265306"/>
+    <col collapsed="false" hidden="false" max="119" min="119" style="0" width="96.25"/>
+    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="90.984693877551"/>
+    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="58.3163265306122"/>
+    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="84.9081632653061"/>
+    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="127" min="127" style="0" width="57.7755102040816"/>
+    <col collapsed="false" hidden="false" max="128" min="128" style="0" width="73.3010204081633"/>
+    <col collapsed="false" hidden="false" max="129" min="129" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="130" min="130" style="0" width="89.9030612244898"/>
+    <col collapsed="false" hidden="false" max="131" min="131" style="0" width="73.1632653061225"/>
+    <col collapsed="false" hidden="false" max="132" min="132" style="0" width="67.4948979591837"/>
+    <col collapsed="false" hidden="false" max="133" min="133" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="134" min="134" style="0" width="68.1683673469388"/>
+    <col collapsed="false" hidden="false" max="135" min="135" style="0" width="78.9693877551021"/>
+    <col collapsed="false" hidden="false" max="136" min="136" style="0" width="59.9387755102041"/>
+    <col collapsed="false" hidden="false" max="137" min="137" style="0" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="138" min="138" style="0" width="72.3571428571429"/>
+    <col collapsed="false" hidden="false" max="139" min="139" style="0" width="73.4336734693878"/>
+    <col collapsed="false" hidden="false" max="140" min="140" style="0" width="111.505102040816"/>
+    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="97.4642857142857"/>
+    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="96.7908163265306"/>
+    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="96.25"/>
+    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="90.984693877551"/>
+    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="58.3163265306122"/>
+    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="84.9081632653061"/>
+    <col collapsed="false" hidden="false" max="147" min="147" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="148" min="148" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="149" min="149" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="150" min="150" style="0" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="151" min="151" style="0" width="57.7755102040816"/>
+    <col collapsed="false" hidden="false" max="152" min="152" style="0" width="73.3010204081633"/>
+    <col collapsed="false" hidden="false" max="153" min="153" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="154" min="154" style="0" width="89.9030612244898"/>
+    <col collapsed="false" hidden="false" max="155" min="155" style="0" width="73.1632653061225"/>
+    <col collapsed="false" hidden="false" max="156" min="156" style="0" width="67.4948979591837"/>
+    <col collapsed="false" hidden="false" max="157" min="157" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="158" min="158" style="0" width="68.1683673469388"/>
+    <col collapsed="false" hidden="false" max="159" min="159" style="0" width="78.9693877551021"/>
+    <col collapsed="false" hidden="false" max="160" min="160" style="0" width="59.9387755102041"/>
+    <col collapsed="false" hidden="false" max="161" min="161" style="0" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="162" min="162" style="0" width="72.3571428571429"/>
+    <col collapsed="false" hidden="false" max="163" min="163" style="0" width="73.4336734693878"/>
+    <col collapsed="false" hidden="false" max="164" min="164" style="0" width="111.505102040816"/>
+    <col collapsed="false" hidden="false" max="165" min="165" style="0" width="97.4642857142857"/>
+    <col collapsed="false" hidden="false" max="166" min="166" style="0" width="96.7908163265306"/>
+    <col collapsed="false" hidden="false" max="167" min="167" style="0" width="96.25"/>
+    <col collapsed="false" hidden="false" max="168" min="168" style="0" width="90.984693877551"/>
+    <col collapsed="false" hidden="false" max="169" min="169" style="0" width="58.3163265306122"/>
+    <col collapsed="false" hidden="false" max="170" min="170" style="0" width="84.9081632653061"/>
+    <col collapsed="false" hidden="false" max="171" min="171" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="172" min="172" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="173" min="173" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="174" min="174" style="0" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="175" min="175" style="0" width="57.7755102040816"/>
+    <col collapsed="false" hidden="false" max="176" min="176" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="177" min="177" style="0" width="73.3010204081633"/>
+    <col collapsed="false" hidden="false" max="178" min="178" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="179" min="179" style="0" width="89.9030612244898"/>
+    <col collapsed="false" hidden="false" max="180" min="180" style="0" width="73.1632653061225"/>
+    <col collapsed="false" hidden="false" max="181" min="181" style="0" width="67.4948979591837"/>
+    <col collapsed="false" hidden="false" max="182" min="182" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="183" min="183" style="0" width="68.1683673469388"/>
+    <col collapsed="false" hidden="false" max="184" min="184" style="0" width="78.9693877551021"/>
+    <col collapsed="false" hidden="false" max="185" min="185" style="0" width="59.9387755102041"/>
+    <col collapsed="false" hidden="false" max="186" min="186" style="0" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="187" min="187" style="0" width="72.3571428571429"/>
+    <col collapsed="false" hidden="false" max="188" min="188" style="0" width="73.4336734693878"/>
+    <col collapsed="false" hidden="false" max="189" min="189" style="0" width="111.505102040816"/>
+    <col collapsed="false" hidden="false" max="190" min="190" style="0" width="97.4642857142857"/>
+    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="96.7908163265306"/>
+    <col collapsed="false" hidden="false" max="192" min="192" style="0" width="96.25"/>
+    <col collapsed="false" hidden="false" max="193" min="193" style="0" width="90.984693877551"/>
+    <col collapsed="false" hidden="false" max="194" min="194" style="0" width="58.3163265306122"/>
+    <col collapsed="false" hidden="false" max="195" min="195" style="0" width="84.9081632653061"/>
+    <col collapsed="false" hidden="false" max="196" min="196" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="197" min="197" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="198" min="198" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="199" min="199" style="0" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="200" min="200" style="0" width="57.7755102040816"/>
+    <col collapsed="false" hidden="false" max="201" min="201" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="202" min="202" style="0" width="93.5510204081633"/>
+    <col collapsed="false" hidden="false" max="203" min="203" style="0" width="79.780612244898"/>
+    <col collapsed="false" hidden="false" max="204" min="204" style="0" width="91.5255102040816"/>
+    <col collapsed="false" hidden="false" max="205" min="205" style="0" width="82.4795918367347"/>
+    <col collapsed="false" hidden="false" max="206" min="206" style="0" width="84.234693877551"/>
+    <col collapsed="false" hidden="false" max="207" min="207" style="0" width="100.301020408163"/>
+    <col collapsed="false" hidden="false" max="208" min="208" style="0" width="99.4897959183674"/>
+    <col collapsed="false" hidden="false" max="209" min="209" style="0" width="96.6530612244898"/>
+    <col collapsed="false" hidden="false" max="210" min="210" style="0" width="61.6887755102041"/>
+    <col collapsed="false" hidden="false" max="211" min="211" style="0" width="105.025510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13324,7 +14055,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -13339,14 +14070,11 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -14094,7 +14822,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -14108,16 +14836,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ368"/>
+  <dimension ref="1:368"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="32.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.34"/>
+    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="32.265306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16131,7 +16858,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -16145,16 +16872,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC124"/>
+  <dimension ref="A1:AC106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -18818,186 +19542,6 @@
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A52:N54"/>
@@ -19006,10 +19550,709 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="142.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="27" t="str">
+        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X1</f>
+        <v>2-d: Please rate how much you agree:  [The robot was able to understand (anticipate) my actions during the task.]</v>
+      </c>
+      <c r="D1" s="31" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV1</f>
+        <v>3-d: Please rate how much you agree:  [The robot was able to understand (anticipate) my actions during the task.]</v>
+      </c>
+      <c r="E1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EN1</f>
+        <v>7-d: Please rate how much you agree:  [The robot was able to understand (anticipate) my actions during the task.]</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Y1</f>
+        <v>2-d: Please rate how much you agree:  [The robot acted as I expected. ]</v>
+      </c>
+      <c r="I1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW1</f>
+        <v>3-d: Please rate how much you agree:  [The robot acted as I expected. ]</v>
+      </c>
+      <c r="J1" s="31" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO1</f>
+        <v>7-d: Please rate how much you agree:  [The robot acted as I expected. ]</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z1</f>
+        <v>2-d: Please rate how much you agree:  [The robot took over at the right times when I needed assistance. ]</v>
+      </c>
+      <c r="N1" s="31" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX1</f>
+        <v>3-d: Please rate how much you agree:  [The robot took over at the right times when I needed assistance. ]</v>
+      </c>
+      <c r="O1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP1</f>
+        <v>7-d: Please rate how much you agree:  [The robot took over at the right times when I needed assistance. ]</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="27" t="n">
+        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X2</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV2</f>
+        <v>4</v>
+      </c>
+      <c r="E2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EN2</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Y2</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW2</f>
+        <v>4</v>
+      </c>
+      <c r="J2" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO2</f>
+        <v>4</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z2</f>
+        <v>4</v>
+      </c>
+      <c r="N2" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX2</f>
+        <v>4</v>
+      </c>
+      <c r="O2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="27" t="n">
+        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X3</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV3</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EN3</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Y3</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW3</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO3</f>
+        <v>5</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z3</f>
+        <v>4</v>
+      </c>
+      <c r="N3" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX3</f>
+        <v>3</v>
+      </c>
+      <c r="O3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="27" t="n">
+        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X4</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV4</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EN4</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Y4</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW4</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO4</f>
+        <v>5</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z4</f>
+        <v>4</v>
+      </c>
+      <c r="N4" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX4</f>
+        <v>2</v>
+      </c>
+      <c r="O4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="27" t="n">
+        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X5</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV5</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EN5</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Y5</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW5</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO5</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z5</f>
+        <v>3</v>
+      </c>
+      <c r="N5" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX5</f>
+        <v>2</v>
+      </c>
+      <c r="O5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="27" t="n">
+        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X6</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV6</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EN6</f>
+        <v>5</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Y6</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW6</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO6</f>
+        <v>5</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z6</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX6</f>
+        <v>4</v>
+      </c>
+      <c r="O6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="27" t="n">
+        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X7</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV7</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EN7</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Y7</f>
+        <v>5</v>
+      </c>
+      <c r="I7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW7</f>
+        <v>4</v>
+      </c>
+      <c r="J7" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO7</f>
+        <v>5</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z7</f>
+        <v>5</v>
+      </c>
+      <c r="N7" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX7</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="27" t="n">
+        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X8</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV8</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EN8</f>
+        <v>4</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Y8</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW8</f>
+        <v>5</v>
+      </c>
+      <c r="J8" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO8</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z8</f>
+        <v>3</v>
+      </c>
+      <c r="N8" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX8</f>
+        <v>3</v>
+      </c>
+      <c r="O8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="27" t="n">
+        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X9</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV9</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EN9</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Y9</f>
+        <v>3</v>
+      </c>
+      <c r="I9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW9</f>
+        <v>3</v>
+      </c>
+      <c r="J9" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO9</f>
+        <v>4</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z9</f>
+        <v>2</v>
+      </c>
+      <c r="N9" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX9</f>
+        <v>3</v>
+      </c>
+      <c r="O9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP9</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="27"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="n">
+        <f aca="false">AVERAGE(C2:C9)</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">AVERAGE(D2:D9)</f>
+        <v>3.375</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <f aca="false">AVERAGE(E2:E9)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F14" s="27" t="n">
+        <f aca="false">AVERAGE(C2:E9)</f>
+        <v>3.625</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27" t="n">
+        <f aca="false">AVERAGE(H2:H9)</f>
+        <v>3.125</v>
+      </c>
+      <c r="I14" s="27" t="n">
+        <f aca="false">AVERAGE(I2:I9)</f>
+        <v>3.75</v>
+      </c>
+      <c r="J14" s="27" t="n">
+        <f aca="false">AVERAGE(J2:J9)</f>
+        <v>4.625</v>
+      </c>
+      <c r="K14" s="27" t="n">
+        <f aca="false">AVERAGE(H2:J9)</f>
+        <v>3.83333333333333</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27" t="n">
+        <f aca="false">AVERAGE(M2:M9)</f>
+        <v>3.375</v>
+      </c>
+      <c r="N14" s="27" t="n">
+        <f aca="false">AVERAGE(N2:N9)</f>
+        <v>3.125</v>
+      </c>
+      <c r="O14" s="27" t="n">
+        <f aca="false">AVERAGE(O2:O9)</f>
+        <v>4.375</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">AVERAGE(M2:O9)</f>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="n">
+        <f aca="false">STDEV(C2:C9)</f>
+        <v>0.925820099772551</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <f aca="false">STDEV(D2:D9)</f>
+        <v>0.517549169506766</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <f aca="false">STDEV(E2:E9)</f>
+        <v>0.534522483824849</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <f aca="false">STDEV(C2:E9)</f>
+        <v>0.923721207705668</v>
+      </c>
+      <c r="G15" s="3" t="e">
+        <f aca="false">STDEV(G2:G9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <f aca="false">STDEV(H2:H9)</f>
+        <v>0.991031208965115</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <f aca="false">STDEV(I2:I9)</f>
+        <v>0.707106781186548</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <f aca="false">STDEV(J2:J9)</f>
+        <v>0.517549169506766</v>
+      </c>
+      <c r="K15" s="3" t="e">
+        <f aca="false">STDEV(K2:K9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="3" t="e">
+        <f aca="false">STDEV(L2:L9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <f aca="false">STDEV(M2:M9)</f>
+        <v>1.06066017177982</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <f aca="false">STDEV(N2:N9)</f>
+        <v>0.83452296039628</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <f aca="false">STDEV(O2:O9)</f>
+        <v>0.744023809142845</v>
+      </c>
+      <c r="P15" s="3" t="e">
+        <f aca="false">STDEV(P2:P9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="31" t="n">
+        <f aca="false">STDEV(C2:C9)/SQRT(COUNT(C2:C9))</f>
+        <v>0.327326835353989</v>
+      </c>
+      <c r="D16" s="31" t="n">
+        <f aca="false">STDEV(D2:D9)/SQRT(COUNT(D2:D9))</f>
+        <v>0.18298126367785</v>
+      </c>
+      <c r="E16" s="31" t="n">
+        <f aca="false">STDEV(E2:E9)/SQRT(COUNT(E2:E9))</f>
+        <v>0.188982236504614</v>
+      </c>
+      <c r="F16" s="31" t="e">
+        <f aca="false">STDEV(F2:F9)/SQRT(COUNT(F2:F9))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="31" t="e">
+        <f aca="false">STDEV(G2:G9)/SQRT(COUNT(G2:G9))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="31" t="n">
+        <f aca="false">STDEV(H2:H9)/SQRT(COUNT(H2:H9))</f>
+        <v>0.350382444113368</v>
+      </c>
+      <c r="I16" s="31" t="n">
+        <f aca="false">STDEV(I2:I9)/SQRT(COUNT(I2:I9))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J16" s="31" t="n">
+        <f aca="false">STDEV(J2:J9)/SQRT(COUNT(J2:J9))</f>
+        <v>0.18298126367785</v>
+      </c>
+      <c r="K16" s="31" t="e">
+        <f aca="false">STDEV(K2:K9)/SQRT(COUNT(K2:K9))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="31" t="e">
+        <f aca="false">STDEV(L2:L9)/SQRT(COUNT(L2:L9))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="31" t="n">
+        <f aca="false">STDEV(M2:M9)/SQRT(COUNT(M2:M9))</f>
+        <v>0.375</v>
+      </c>
+      <c r="N16" s="31" t="n">
+        <f aca="false">STDEV(N2:N9)/SQRT(COUNT(N2:N9))</f>
+        <v>0.295048422176041</v>
+      </c>
+      <c r="O16" s="31" t="n">
+        <f aca="false">STDEV(O2:O9)/SQRT(COUNT(O2:O9))</f>
+        <v>0.263052140404576</v>
+      </c>
+      <c r="P16" s="31" t="e">
+        <f aca="false">STDEV(P2:P9)/SQRT(COUNT(P2:P9))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19023,14 +20266,13 @@
   </sheetPr>
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.34"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.6275510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20142,7 +21384,7 @@
       </c>
       <c r="I41" s="0" t="n">
         <f aca="false">FINV(Tediousness!$D$34, Tediousness!$E$41, Tediousness!$E$42)</f>
-        <v>4.74722534672252</v>
+        <v>4.74722534672251</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20301,7 +21543,7 @@
       </c>
       <c r="I57" s="0" t="n">
         <f aca="false">FINV(Tediousness!$D$50, Tediousness!$E$57, Tediousness!$E$58)</f>
-        <v>4.74722534672252</v>
+        <v>4.74722534672251</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20467,17 +21709,17 @@
       <c r="C75" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="D75" s="0" t="e">
+      <c r="D75" s="0" t="n">
         <f aca="false">SUM(DEVSQ($B$5:$B$12),DEVSQ($C$4:$C$11))</f>
-        <v>#DIV/0!</v>
+        <v>12.8571428571429</v>
       </c>
       <c r="E75" s="0" t="n">
         <f aca="false">SUM(Tediousness!$D$70:$D$71)-COUNT(Tediousness!$D$70:$D$71)</f>
         <v>5</v>
       </c>
-      <c r="F75" s="0" t="e">
+      <c r="F75" s="0" t="n">
         <f aca="false">Tediousness!$D$75 / Tediousness!$E$75</f>
-        <v>#DIV/0!</v>
+        <v>2.57142857142857</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20496,7 +21738,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -20512,14 +21754,13 @@
   </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.34"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.5102040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21967,7 +23208,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -21983,14 +23224,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -22367,7 +23605,7 @@
       </c>
       <c r="G23" s="17" t="n">
         <f aca="false">FDIST('Confident remembering rules'!$F$23, 'Confident remembering rules'!$D$23, 'Confident remembering rules'!$D$24)</f>
-        <v>0.0205363820064573</v>
+        <v>0.0205363820064574</v>
       </c>
       <c r="H23" s="17" t="n">
         <f aca="false">FINV('Confident remembering rules'!$C$15, 'Confident remembering rules'!$D$23, 'Confident remembering rules'!$D$24)</f>
@@ -22414,7 +23652,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -22430,14 +23668,11 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -22833,7 +24068,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -22849,14 +24084,11 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -23246,7 +24478,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -23262,14 +24494,11 @@
   </sheetPr>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -23966,7 +25195,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -23982,14 +25211,11 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -24445,7 +25671,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -24461,14 +25687,11 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -24908,7 +26131,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/code/results/Participants/Analysis/Jamovi_analysis/Dobot_questionnaire_V2.0_same_taskset_work_edition.xlsx
+++ b/code/results/Participants/Analysis/Jamovi_analysis/Dobot_questionnaire_V2.0_same_taskset_work_edition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Dobot_questionnaire_V2.0_same_taskset" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="323">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -949,9 +949,6 @@
     <t xml:space="preserve">stdev</t>
   </si>
   <si>
-    <t xml:space="preserve">type3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mental dimension</t>
   </si>
   <si>
@@ -988,10 +985,22 @@
     <t xml:space="preserve">Type 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Type 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type 1-3</t>
+    <t xml:space="preserve">Type 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types 1,2,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 2 first occurence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 2 second occurence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 2 third occurence</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1011,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1027,98 +1036,15 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1132,8 +1058,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1142,13 +1073,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,50 +1083,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF999999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FF66FF00"/>
+        <bgColor rgb="FF99FF33"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
         <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FF00"/>
-        <bgColor rgb="FF99FF33"/>
       </patternFill>
     </fill>
     <fill>
@@ -1228,27 +1118,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1308,7 +1183,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1332,57 +1207,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1398,6 +1222,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1421,75 +1249,71 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1497,11 +1321,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1509,35 +1333,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Accent" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 3" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1545,14 +1352,14 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF66FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF7E0021"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB3B3B3"/>
@@ -1560,11 +1367,11 @@
       <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FF99FF66"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF99FF33"/>
@@ -1575,12 +1382,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FF99FF66"/>
       <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFAECF00"/>
@@ -1592,7 +1399,7 @@
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF314004"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF4B1F6F"/>
@@ -1602,137 +1409,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="8320769"/>
-        <c:axId val="85568201"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="8320769"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="MM/DD/YYYY" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="85568201"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="85568201"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="8320769"/>
-        <c:crosses val="min"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1879,11 +1556,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="36067671"/>
-        <c:axId val="97025163"/>
+        <c:axId val="98080419"/>
+        <c:axId val="64825834"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36067671"/>
+        <c:axId val="98080419"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,14 +1595,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97025163"/>
+        <c:crossAx val="64825834"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97025163"/>
+        <c:axId val="64825834"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +1646,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36067671"/>
+        <c:crossAx val="98080419"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2006,7 +1683,1989 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>The robot could anticipate my actions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Types 1,2,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="98365529"/>
+        <c:axId val="45648462"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="98365529"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45648462"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45648462"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98365529"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>The robot acted as I expected</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Types 1,2,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.83333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="66255844"/>
+        <c:axId val="82036805"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="66255844"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82036805"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82036805"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66255844"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>The robot took over at the right times, when I needed assistance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.095672514619883"/>
+          <c:y val="0.0299021787461094"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$M$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$O$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Types 1,2,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="4967763"/>
+        <c:axId val="43366462"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="4967763"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43366462"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43366462"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4967763"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>I trust the robot with the task</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$T$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 2 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$U$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$V$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Types 1,2,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="19093837"/>
+        <c:axId val="69268345"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="19093837"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69268345"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69268345"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19093837"/>
+        <c:crossesAt val="-2147483648"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>I trust the robot with the task - development over time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$Z$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 2 first occurence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$Z$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$AA$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 2 second occurence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$AA$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$AB$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 2 third occurence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="92893654"/>
+        <c:axId val="36413695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="92893654"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>development of trust over time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36413695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="36413695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92893654"/>
+        <c:crossesAt val="-2147483648"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2213,11 +3872,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="10430074"/>
-        <c:axId val="52244665"/>
+        <c:axId val="39162251"/>
+        <c:axId val="20475834"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="10430074"/>
+        <c:axId val="39162251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,12 +3911,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52244665"/>
+        <c:crossAx val="20475834"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52244665"/>
+        <c:axId val="20475834"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,7 +3960,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10430074"/>
+        <c:crossAx val="39162251"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2338,7 +3997,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2383,8 +4042,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28496583143508"/>
-          <c:y val="0.0278262555749467"/>
+          <c:x val="0.285178124627666"/>
+          <c:y val="0.0283275126115638"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2396,10 +4055,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0652050113895216"/>
-          <c:y val="0.0192941632732209"/>
-          <c:w val="0.570615034168565"/>
-          <c:h val="0.98022105875509"/>
+          <c:x val="0.0755391397593233"/>
+          <c:y val="0.0174621653084983"/>
+          <c:w val="0.570356249255332"/>
+          <c:h val="0.979724485836244"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2432,7 +4091,7 @@
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -2572,7 +4231,7 @@
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -2691,146 +4350,6 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'General questions'!$I$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>My interest in collaborating with the robot faded away</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="314004"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'General questions'!$B$14:$K$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.462910049886276</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.991031208965115</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.744023809142845</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.06066017177982</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.03509833901353</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.83452296039628</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.0690449676497</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.707106781186548</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.640869944461656</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'General questions'!$B$14:$K$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.462910049886276</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.991031208965115</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.744023809142845</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.06066017177982</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.03509833901353</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.83452296039628</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.0690449676497</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.707106781186548</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.640869944461656</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'General questions'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'General questions'!$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
               <c:f>'General questions'!$J$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -2852,7 +4371,7 @@
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -2967,8 +4486,8 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'General questions'!$K$12</c:f>
@@ -2992,7 +4511,7 @@
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3108,11 +4627,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="48170772"/>
-        <c:axId val="51313789"/>
+        <c:axId val="40286258"/>
+        <c:axId val="45318264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48170772"/>
+        <c:axId val="40286258"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3147,14 +4666,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51313789"/>
+        <c:crossAx val="45318264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51313789"/>
+        <c:axId val="45318264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3238,7 +4757,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48170772"/>
+        <c:crossAx val="40286258"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3275,7 +4794,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3325,10 +4844,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0652016857314871"/>
-          <c:y val="0.019387359441644"/>
-          <c:w val="0.570620108368453"/>
-          <c:h val="0.980224893369523"/>
+          <c:x val="0.0823142342789745"/>
+          <c:y val="0.0192083818393481"/>
+          <c:w val="0.570364392575579"/>
+          <c:h val="0.979724485836244"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3359,9 +4878,18 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3478,7 +5006,7 @@
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3521,9 +5049,18 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3640,7 +5177,7 @@
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3661,11 +5198,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="3598401"/>
-        <c:axId val="6478215"/>
+        <c:axId val="56585654"/>
+        <c:axId val="58335858"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3598401"/>
+        <c:axId val="56585654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3700,14 +5237,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6478215"/>
+        <c:crossAx val="58335858"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6478215"/>
+        <c:axId val="58335858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3760,6 +5297,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.000434539698305295"/>
+              <c:y val="0.711389212262321"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3791,8 +5336,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3598401"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="56585654"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3828,628 +5373,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Task characteristics</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'General questions'!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tasks became more challenging</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'General questions'!$B$14,'General questions'!$E$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.744023809142845</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'General questions'!$B$14,'General questions'!$E$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.744023809142845</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'General questions'!$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'General questions'!$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'General questions'!$D$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I became more exhausted</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'General questions'!$B$14,'General questions'!$E$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.744023809142845</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'General questions'!$B$14,'General questions'!$E$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.744023809142845</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'General questions'!$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'General questions'!$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'General questions'!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tasks became more tedious</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'General questions'!$B$14,'General questions'!$E$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.744023809142845</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'General questions'!$B$14,'General questions'!$E$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.744023809142845</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'General questions'!$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'General questions'!$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'General questions'!$E$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A robot collaboration is beneficial in such tasks</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'General questions'!$B$14,'General questions'!$E$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.744023809142845</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'General questions'!$B$14,'General questions'!$E$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.744023809142845</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'General questions'!$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'General questions'!$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="91801707"/>
-        <c:axId val="40257262"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="91801707"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="40257262"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="40257262"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="6"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Mean of Likert scale answers</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91801707"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4893,11 +5817,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="83887725"/>
-        <c:axId val="92910148"/>
+        <c:axId val="48294159"/>
+        <c:axId val="40509818"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83887725"/>
+        <c:axId val="48294159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,12 +5856,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92910148"/>
+        <c:crossAx val="40509818"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92910148"/>
+        <c:axId val="40509818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4983,8 +5907,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83887725"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="48294159"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5020,7 +5944,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5228,7 +6152,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>type3</c:v>
+                  <c:v>type4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5296,11 +6220,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="87244298"/>
-        <c:axId val="65163923"/>
+        <c:axId val="77135639"/>
+        <c:axId val="53344861"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87244298"/>
+        <c:axId val="77135639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5335,14 +6259,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65163923"/>
+        <c:crossAx val="53344861"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65163923"/>
+        <c:axId val="53344861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5425,8 +6349,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87244298"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="77135639"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5462,7 +6386,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5507,8 +6431,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.311323171512745"/>
-          <c:y val="0.0345210345210345"/>
+          <c:x val="0.311400086692674"/>
+          <c:y val="0.0350838236926835"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5656,11 +6580,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="61513053"/>
-        <c:axId val="670789"/>
+        <c:axId val="61544293"/>
+        <c:axId val="62946275"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61513053"/>
+        <c:axId val="61544293"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5695,14 +6619,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670789"/>
+        <c:crossAx val="62946275"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="670789"/>
+        <c:axId val="62946275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5785,8 +6709,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61513053"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="61544293"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5822,7 +6746,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6053,11 +6977,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="76187137"/>
-        <c:axId val="41001486"/>
+        <c:axId val="72207157"/>
+        <c:axId val="72700022"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76187137"/>
+        <c:axId val="72207157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6092,14 +7016,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41001486"/>
+        <c:crossAx val="72700022"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41001486"/>
+        <c:axId val="72700022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6143,7 +7067,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76187137"/>
+        <c:crossAx val="72207157"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6180,7 +7104,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6366,11 +7290,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="10294416"/>
-        <c:axId val="99076122"/>
+        <c:axId val="93003661"/>
+        <c:axId val="77016446"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10294416"/>
+        <c:axId val="93003661"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6405,14 +7329,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99076122"/>
+        <c:crossAx val="77016446"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99076122"/>
+        <c:axId val="77016446"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6495,1191 +7419,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10294416"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>The robot could anticipate my actions</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.375</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$E$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$F$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type 1-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-20"/>
-        <c:axId val="59915435"/>
-        <c:axId val="51817409"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="59915435"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="51817409"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="51817409"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Means of Likert scale responses</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59915435"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>The robot acted as I expected</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$H$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$I$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$J$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$K$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type 1-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.83333333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-20"/>
-        <c:axId val="6315943"/>
-        <c:axId val="65441889"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="6315943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="65441889"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="65441889"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Means of Likert scale responses</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="6315943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>The robot took over at the right times, when I needed assistance</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0954375"/>
-          <c:y val="0.0293333333333333"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$M$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$M$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.375</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$N$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$N$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$O$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$O$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.375</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$P$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type 1-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$P$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-20"/>
-        <c:axId val="26603483"/>
-        <c:axId val="32220007"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="26603483"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="32220007"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="32220007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Means of Likert scale responses</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26603483"/>
+        <c:crossAx val="93003661"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7720,16 +7460,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>763920</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>767880</xdr:rowOff>
+      <xdr:rowOff>1038960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>122400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>93240</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7737,8 +7477,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5450040" y="930240"/>
-        <a:ext cx="5607000" cy="3239280"/>
+        <a:off x="5113440" y="1201320"/>
+        <a:ext cx="4123800" cy="3234240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7750,16 +7490,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>541440</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1038240</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>37080</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>694800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>194400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>222840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7767,42 +7507,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6789600" y="1200600"/>
-        <a:ext cx="5620680" cy="3235680"/>
+        <a:off x="2323080" y="2840040"/>
+        <a:ext cx="4157640" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>223560</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="3160440" y="2839320"/>
-        <a:ext cx="5626080" cy="3239280"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7816,24 +7526,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>552600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:colOff>691920</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>44280</xdr:colOff>
+      <xdr:colOff>248040</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7381800" y="4797000"/>
-        <a:ext cx="6321240" cy="3712680"/>
+        <a:off x="7178400" y="4797720"/>
+        <a:ext cx="6042600" cy="3710520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7846,24 +7556,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>870120</xdr:colOff>
+      <xdr:colOff>707040</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="3" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="870120" y="4800600"/>
-        <a:ext cx="5979240" cy="3713400"/>
+        <a:off x="707040" y="4765680"/>
+        <a:ext cx="5798880" cy="3710520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7875,59 +7585,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1096560</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>155880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2246040</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Task characteristics "/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1096560" y="9443880"/>
-        <a:ext cx="5702400" cy="3239280"/>
+        <a:off x="19615320" y="5227560"/>
+        <a:ext cx="6333480" cy="3242520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>155160</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2252520</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="20643120" y="5227560"/>
-        <a:ext cx="6650280" cy="3243960"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7940,25 +7620,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>632160</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>32760</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>708480</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPr id="5" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1413000" y="5606280"/>
-        <a:ext cx="5543640" cy="3241800"/>
+        <a:off x="1175760" y="5606280"/>
+        <a:ext cx="4075560" cy="3240360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7977,18 +7657,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:colOff>265320</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvPr id="6" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4799520" y="10756440"/>
-        <a:ext cx="5620680" cy="3242880"/>
+        <a:off x="3542400" y="10756440"/>
+        <a:ext cx="4152240" cy="3242160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8003,22 +7683,22 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>395280</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>554040</xdr:colOff>
+      <xdr:colOff>552600</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvPr id="7" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="395280" y="22582080"/>
-        <a:ext cx="5626080" cy="3239280"/>
+        <a:off x="395280" y="22582440"/>
+        <a:ext cx="4157640" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8037,18 +7717,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>194760</xdr:colOff>
+      <xdr:colOff>194040</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvPr id="8" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16438320" y="14135400"/>
-        <a:ext cx="5625720" cy="3239280"/>
+        <a:off x="12037680" y="14135400"/>
+        <a:ext cx="4158360" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8067,23 +7747,23 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>46440</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>116640</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:colOff>115920</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvPr id="9" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="46440" y="4965840"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="46440" y="6382080"/>
+        <a:ext cx="4203000" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8096,24 +7776,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>478800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:colOff>479520</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>549000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:colOff>547560</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvPr id="10" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6168240" y="4953240"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="4613040" y="6369480"/>
+        <a:ext cx="4201920" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8127,14 +7807,74 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>86040</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:colOff>568800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9534600" y="6504480"/>
+        <a:ext cx="4616640" cy="3238200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>20520</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>372600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14784120" y="6502320"/>
+        <a:ext cx="5667120" cy="3246120"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>559440</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>414360</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8142,12 +7882,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13090680" y="5087520"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="21819240" y="6588720"/>
+        <a:ext cx="5760360" cy="3233520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8161,225 +7901,225 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:HC9"/>
+  <dimension ref="A1:HC21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BN1" activeCellId="0" sqref="BN1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="GN1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="ET21" activeCellId="0" sqref="ET21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.4183673469388"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="73.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="89.9030612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="73.1632653061225"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="67.4948979591837"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="86.9336734693878"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="78.9693877551021"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="59.9387755102041"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="63.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="72.3571428571429"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="73.4336734693878"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="111.505102040816"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="97.4642857142857"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="96.7908163265306"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="96.25"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="90.984693877551"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="84.9081632653061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="57.7755102040816"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="73.3010204081633"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="89.9030612244898"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="73.1632653061225"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="67.4948979591837"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="86.9336734693878"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="78.9693877551021"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="59.9387755102041"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="63.5816326530612"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="72.3571428571429"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="73.4336734693878"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="111.505102040816"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="97.4642857142857"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="96.7908163265306"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="96.25"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="90.984693877551"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="84.9081632653061"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="57.7755102040816"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="73.3010204081633"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="89.9030612244898"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="73.1632653061225"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="67.4948979591837"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="86.9336734693878"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="78.9693877551021"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="59.9387755102041"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="63.5816326530612"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="72.3571428571429"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="73.4336734693878"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="111.505102040816"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="97.4642857142857"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="96.7908163265306"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="96.25"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="90.984693877551"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="84.9081632653061"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="57.7755102040816"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="73.3010204081633"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="89.9030612244898"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="73.1632653061225"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="67.4948979591837"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="86.9336734693878"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="78.9693877551021"/>
-    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="59.9387755102041"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="63.5816326530612"/>
-    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="72.3571428571429"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="73.4336734693878"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="111.505102040816"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="97.4642857142857"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="96.7908163265306"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="96.25"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="90.984693877551"/>
-    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="84.9081632653061"/>
-    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="102" min="102" style="0" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="57.7755102040816"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="73.3010204081633"/>
-    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="89.9030612244898"/>
-    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="73.1632653061225"/>
-    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="67.4948979591837"/>
-    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="86.9336734693878"/>
-    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="78.9693877551021"/>
-    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="59.9387755102041"/>
-    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="63.5816326530612"/>
-    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="72.3571428571429"/>
-    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="73.4336734693878"/>
-    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="111.505102040816"/>
-    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="97.4642857142857"/>
-    <col collapsed="false" hidden="false" max="118" min="118" style="0" width="96.7908163265306"/>
-    <col collapsed="false" hidden="false" max="119" min="119" style="0" width="96.25"/>
-    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="90.984693877551"/>
-    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="84.9081632653061"/>
-    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="127" min="127" style="0" width="57.7755102040816"/>
-    <col collapsed="false" hidden="false" max="128" min="128" style="0" width="73.3010204081633"/>
-    <col collapsed="false" hidden="false" max="129" min="129" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="130" min="130" style="0" width="89.9030612244898"/>
-    <col collapsed="false" hidden="false" max="131" min="131" style="0" width="73.1632653061225"/>
-    <col collapsed="false" hidden="false" max="132" min="132" style="0" width="67.4948979591837"/>
-    <col collapsed="false" hidden="false" max="133" min="133" style="0" width="86.9336734693878"/>
-    <col collapsed="false" hidden="false" max="134" min="134" style="0" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="135" min="135" style="0" width="78.9693877551021"/>
-    <col collapsed="false" hidden="false" max="136" min="136" style="0" width="59.9387755102041"/>
-    <col collapsed="false" hidden="false" max="137" min="137" style="0" width="63.5816326530612"/>
-    <col collapsed="false" hidden="false" max="138" min="138" style="0" width="72.3571428571429"/>
-    <col collapsed="false" hidden="false" max="139" min="139" style="0" width="73.4336734693878"/>
-    <col collapsed="false" hidden="false" max="140" min="140" style="0" width="111.505102040816"/>
-    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="97.4642857142857"/>
-    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="96.7908163265306"/>
-    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="96.25"/>
-    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="90.984693877551"/>
-    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="84.9081632653061"/>
-    <col collapsed="false" hidden="false" max="147" min="147" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="148" min="148" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="149" min="149" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="150" min="150" style="0" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="151" min="151" style="0" width="57.7755102040816"/>
-    <col collapsed="false" hidden="false" max="152" min="152" style="0" width="73.3010204081633"/>
-    <col collapsed="false" hidden="false" max="153" min="153" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="154" min="154" style="0" width="89.9030612244898"/>
-    <col collapsed="false" hidden="false" max="155" min="155" style="0" width="73.1632653061225"/>
-    <col collapsed="false" hidden="false" max="156" min="156" style="0" width="67.4948979591837"/>
-    <col collapsed="false" hidden="false" max="157" min="157" style="0" width="86.9336734693878"/>
-    <col collapsed="false" hidden="false" max="158" min="158" style="0" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="159" min="159" style="0" width="78.9693877551021"/>
-    <col collapsed="false" hidden="false" max="160" min="160" style="0" width="59.9387755102041"/>
-    <col collapsed="false" hidden="false" max="161" min="161" style="0" width="63.5816326530612"/>
-    <col collapsed="false" hidden="false" max="162" min="162" style="0" width="72.3571428571429"/>
-    <col collapsed="false" hidden="false" max="163" min="163" style="0" width="73.4336734693878"/>
-    <col collapsed="false" hidden="false" max="164" min="164" style="0" width="111.505102040816"/>
-    <col collapsed="false" hidden="false" max="165" min="165" style="0" width="97.4642857142857"/>
-    <col collapsed="false" hidden="false" max="166" min="166" style="0" width="96.7908163265306"/>
-    <col collapsed="false" hidden="false" max="167" min="167" style="0" width="96.25"/>
-    <col collapsed="false" hidden="false" max="168" min="168" style="0" width="90.984693877551"/>
-    <col collapsed="false" hidden="false" max="169" min="169" style="0" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="170" min="170" style="0" width="84.9081632653061"/>
-    <col collapsed="false" hidden="false" max="171" min="171" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="172" min="172" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="173" min="173" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="174" min="174" style="0" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="175" min="175" style="0" width="57.7755102040816"/>
-    <col collapsed="false" hidden="false" max="176" min="176" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="177" min="177" style="0" width="73.3010204081633"/>
-    <col collapsed="false" hidden="false" max="178" min="178" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="179" min="179" style="0" width="89.9030612244898"/>
-    <col collapsed="false" hidden="false" max="180" min="180" style="0" width="73.1632653061225"/>
-    <col collapsed="false" hidden="false" max="181" min="181" style="0" width="67.4948979591837"/>
-    <col collapsed="false" hidden="false" max="182" min="182" style="0" width="86.9336734693878"/>
-    <col collapsed="false" hidden="false" max="183" min="183" style="0" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="184" min="184" style="0" width="78.9693877551021"/>
-    <col collapsed="false" hidden="false" max="185" min="185" style="0" width="59.9387755102041"/>
-    <col collapsed="false" hidden="false" max="186" min="186" style="0" width="63.5816326530612"/>
-    <col collapsed="false" hidden="false" max="187" min="187" style="0" width="72.3571428571429"/>
-    <col collapsed="false" hidden="false" max="188" min="188" style="0" width="73.4336734693878"/>
-    <col collapsed="false" hidden="false" max="189" min="189" style="0" width="111.505102040816"/>
-    <col collapsed="false" hidden="false" max="190" min="190" style="0" width="97.4642857142857"/>
-    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="96.7908163265306"/>
-    <col collapsed="false" hidden="false" max="192" min="192" style="0" width="96.25"/>
-    <col collapsed="false" hidden="false" max="193" min="193" style="0" width="90.984693877551"/>
-    <col collapsed="false" hidden="false" max="194" min="194" style="0" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="195" min="195" style="0" width="84.9081632653061"/>
-    <col collapsed="false" hidden="false" max="196" min="196" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="197" min="197" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="198" min="198" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="199" min="199" style="0" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="200" min="200" style="0" width="57.7755102040816"/>
-    <col collapsed="false" hidden="false" max="201" min="201" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="202" min="202" style="0" width="93.5510204081633"/>
-    <col collapsed="false" hidden="false" max="203" min="203" style="0" width="79.780612244898"/>
-    <col collapsed="false" hidden="false" max="204" min="204" style="0" width="91.5255102040816"/>
-    <col collapsed="false" hidden="false" max="205" min="205" style="0" width="82.4795918367347"/>
-    <col collapsed="false" hidden="false" max="206" min="206" style="0" width="84.234693877551"/>
-    <col collapsed="false" hidden="false" max="207" min="207" style="0" width="100.301020408163"/>
-    <col collapsed="false" hidden="false" max="208" min="208" style="0" width="99.4897959183674"/>
-    <col collapsed="false" hidden="false" max="209" min="209" style="0" width="96.6530612244898"/>
-    <col collapsed="false" hidden="false" max="210" min="210" style="0" width="61.6887755102041"/>
-    <col collapsed="false" hidden="false" max="211" min="211" style="0" width="105.025510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.6683673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="85.8571428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="69.7908163265306"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="83.0204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="75.4591836734694"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="70.0612244897959"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="106.510204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="93.280612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="92.4693877551021"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="91.9285714285714"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="86.8010204081633"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="62.7704081632653"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="54.9438775510204"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="59.6683673469388"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="85.8571428571429"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="69.7908163265306"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="83.0204081632653"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="75.4591836734694"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="70.0612244897959"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="106.510204081633"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="93.280612244898"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="92.4693877551021"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="91.9285714285714"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="86.8010204081633"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="62.7704081632653"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="54.9438775510204"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="59.6683673469388"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="85.8571428571429"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="69.7908163265306"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="83.0204081632653"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="75.4591836734694"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="70.0612244897959"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="106.510204081633"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="93.280612244898"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="92.4693877551021"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="91.9285714285714"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="86.8010204081633"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="62.7704081632653"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="54.9438775510204"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="59.6683673469388"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="85.8571428571429"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="69.7908163265306"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="83.0204081632653"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="75.4591836734694"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="70.0612244897959"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="106.510204081633"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="93.280612244898"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="92.4693877551021"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="91.9285714285714"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="86.8010204081633"/>
+    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="62.7704081632653"/>
+    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="102" min="102" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="54.9438775510204"/>
+    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="59.6683673469388"/>
+    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="85.8571428571429"/>
+    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="69.7908163265306"/>
+    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="83.0204081632653"/>
+    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="75.4591836734694"/>
+    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="70.0612244897959"/>
+    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="106.510204081633"/>
+    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="93.280612244898"/>
+    <col collapsed="false" hidden="false" max="118" min="118" style="0" width="92.4693877551021"/>
+    <col collapsed="false" hidden="false" max="119" min="119" style="0" width="91.9285714285714"/>
+    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="86.8010204081633"/>
+    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="62.7704081632653"/>
+    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="127" min="127" style="0" width="54.9438775510204"/>
+    <col collapsed="false" hidden="false" max="128" min="128" style="0" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="129" min="129" style="0" width="59.6683673469388"/>
+    <col collapsed="false" hidden="false" max="130" min="130" style="0" width="85.8571428571429"/>
+    <col collapsed="false" hidden="false" max="131" min="131" style="0" width="69.7908163265306"/>
+    <col collapsed="false" hidden="false" max="132" min="132" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="133" min="133" style="0" width="83.0204081632653"/>
+    <col collapsed="false" hidden="false" max="134" min="134" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="135" min="135" style="0" width="75.4591836734694"/>
+    <col collapsed="false" hidden="false" max="136" min="136" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="137" min="137" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="138" min="138" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="139" min="139" style="0" width="70.0612244897959"/>
+    <col collapsed="false" hidden="false" max="140" min="140" style="0" width="106.510204081633"/>
+    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="93.280612244898"/>
+    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="92.4693877551021"/>
+    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="91.9285714285714"/>
+    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="86.8010204081633"/>
+    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="147" min="147" style="0" width="62.7704081632653"/>
+    <col collapsed="false" hidden="false" max="148" min="148" style="0" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="149" min="149" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="150" min="150" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="151" min="151" style="0" width="54.9438775510204"/>
+    <col collapsed="false" hidden="false" max="152" min="152" style="0" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="153" min="153" style="0" width="59.6683673469388"/>
+    <col collapsed="false" hidden="false" max="154" min="154" style="0" width="85.8571428571429"/>
+    <col collapsed="false" hidden="false" max="155" min="155" style="0" width="69.7908163265306"/>
+    <col collapsed="false" hidden="false" max="156" min="156" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="157" min="157" style="0" width="83.0204081632653"/>
+    <col collapsed="false" hidden="false" max="158" min="158" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="159" min="159" style="0" width="75.4591836734694"/>
+    <col collapsed="false" hidden="false" max="160" min="160" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="161" min="161" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="162" min="162" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="163" min="163" style="0" width="70.0612244897959"/>
+    <col collapsed="false" hidden="false" max="164" min="164" style="0" width="106.510204081633"/>
+    <col collapsed="false" hidden="false" max="165" min="165" style="0" width="93.280612244898"/>
+    <col collapsed="false" hidden="false" max="166" min="166" style="0" width="92.4693877551021"/>
+    <col collapsed="false" hidden="false" max="167" min="167" style="0" width="91.9285714285714"/>
+    <col collapsed="false" hidden="false" max="168" min="168" style="0" width="86.8010204081633"/>
+    <col collapsed="false" hidden="false" max="169" min="169" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="170" min="170" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="171" min="171" style="0" width="62.7704081632653"/>
+    <col collapsed="false" hidden="false" max="172" min="172" style="0" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="173" min="173" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="174" min="174" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="175" min="175" style="0" width="54.9438775510204"/>
+    <col collapsed="false" hidden="false" max="176" min="176" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="177" min="177" style="0" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="178" min="178" style="0" width="59.6683673469388"/>
+    <col collapsed="false" hidden="false" max="179" min="179" style="0" width="85.8571428571429"/>
+    <col collapsed="false" hidden="false" max="180" min="180" style="0" width="69.7908163265306"/>
+    <col collapsed="false" hidden="false" max="181" min="181" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="182" min="182" style="0" width="83.0204081632653"/>
+    <col collapsed="false" hidden="false" max="183" min="183" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="184" min="184" style="0" width="75.4591836734694"/>
+    <col collapsed="false" hidden="false" max="185" min="185" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="186" min="186" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="187" min="187" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="188" min="188" style="0" width="70.0612244897959"/>
+    <col collapsed="false" hidden="false" max="189" min="189" style="0" width="106.510204081633"/>
+    <col collapsed="false" hidden="false" max="190" min="190" style="0" width="93.280612244898"/>
+    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="92.4693877551021"/>
+    <col collapsed="false" hidden="false" max="192" min="192" style="0" width="91.9285714285714"/>
+    <col collapsed="false" hidden="false" max="193" min="193" style="0" width="86.8010204081633"/>
+    <col collapsed="false" hidden="false" max="194" min="194" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="195" min="195" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="196" min="196" style="0" width="62.7704081632653"/>
+    <col collapsed="false" hidden="false" max="197" min="197" style="0" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="198" min="198" style="0" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="199" min="199" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="200" min="200" style="0" width="54.9438775510204"/>
+    <col collapsed="false" hidden="false" max="201" min="201" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="202" min="202" style="0" width="89.3622448979592"/>
+    <col collapsed="false" hidden="false" max="203" min="203" style="0" width="76.1377551020408"/>
+    <col collapsed="false" hidden="false" max="204" min="204" style="0" width="87.4744897959184"/>
+    <col collapsed="false" hidden="false" max="205" min="205" style="0" width="78.6989795918367"/>
+    <col collapsed="false" hidden="false" max="206" min="206" style="0" width="80.4540816326531"/>
+    <col collapsed="false" hidden="false" max="207" min="207" style="0" width="95.7091836734694"/>
+    <col collapsed="false" hidden="false" max="208" min="208" style="0" width="94.8979591836735"/>
+    <col collapsed="false" hidden="false" max="209" min="209" style="0" width="92.3367346938776"/>
+    <col collapsed="false" hidden="false" max="210" min="210" style="0" width="58.8571428571429"/>
+    <col collapsed="false" hidden="false" max="211" min="211" style="0" width="100.433673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14050,6 +13790,24 @@
       </c>
       <c r="HC9" s="0" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BZ21" s="0" t="n">
+        <f aca="false">AVERAGE(BZ2:BZ9)</f>
+        <v>4</v>
+      </c>
+      <c r="CA21" s="0" t="n">
+        <f aca="false">AVERAGE(CA2:CA9)</f>
+        <v>3.75</v>
+      </c>
+      <c r="CX21" s="0" t="n">
+        <f aca="false">AVERAGE(CX2:CX9)</f>
+        <v>4.125</v>
+      </c>
+      <c r="ET21" s="0" t="n">
+        <f aca="false">AVERAGE(ET2:ET9)</f>
+        <v>4.625</v>
       </c>
     </row>
   </sheetData>
@@ -14070,7 +13828,7 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -14838,16 +14596,16 @@
   </sheetPr>
   <dimension ref="1:368"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="30.6428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>284</v>
       </c>
@@ -14880,6 +14638,10 @@
       </c>
       <c r="K1" s="3" t="s">
         <v>210</v>
+      </c>
+      <c r="L1" s="3" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ1</f>
+        <v>4-e: Please rate how much you agree:  [I trust the robot with the task.]</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
@@ -14938,7 +14700,10 @@
       <c r="K3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ2</f>
+        <v>4</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -14980,7 +14745,10 @@
       <c r="K4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ3</f>
+        <v>5</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -15022,7 +14790,10 @@
       <c r="K5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ4</f>
+        <v>2</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -15064,7 +14835,10 @@
       <c r="K6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ5</f>
+        <v>3</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -15106,7 +14880,10 @@
       <c r="K7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ6</f>
+        <v>4</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -15148,7 +14925,10 @@
       <c r="K8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ7</f>
+        <v>5</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -15190,7 +14970,10 @@
       <c r="K9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ8</f>
+        <v>5</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -15232,7 +15015,10 @@
       <c r="K10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ9</f>
+        <v>4</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -15342,7 +15128,10 @@
         <f aca="false">AVERAGE(K3:K10)</f>
         <v>4.125</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3" t="n">
+        <f aca="false">AVERAGE(L3:L10)</f>
+        <v>4</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -15395,7 +15184,10 @@
         <f aca="false">STDEV(K3:K10)</f>
         <v>0.640869944461656</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="n">
+        <f aca="false">STDEV(L3:L10)</f>
+        <v>1.0690449676497</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -15449,7 +15241,10 @@
         <f aca="false">STDEV(K3:K10)/SQRT(COUNT(K3:K10))</f>
         <v>0.226581741793741</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="n">
+        <f aca="false">STDEV(L3:L10)/SQRT(COUNT(L3:L10))</f>
+        <v>0.377964473009227</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -16874,8 +16669,8 @@
   </sheetPr>
   <dimension ref="A1:AC106"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -18041,7 +17836,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">X11</f>
@@ -18067,7 +17862,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -18083,7 +17878,7 @@
       <c r="M52" s="30"/>
       <c r="N52" s="30"/>
       <c r="R52" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S52" s="30"/>
       <c r="T52" s="30"/>
@@ -18690,7 +18485,7 @@
       <c r="M68" s="27"/>
       <c r="N68" s="27"/>
       <c r="R68" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S68" s="27" t="n">
         <f aca="false">S66*5</f>
@@ -18715,7 +18510,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B69" s="27" t="n">
         <f aca="false">B67*5</f>
@@ -19260,7 +19055,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
@@ -19501,16 +19296,16 @@
         <v>285</v>
       </c>
       <c r="B105" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="C105" s="27" t="s">
+      <c r="D105" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D105" s="27" t="s">
+      <c r="E105" s="27" t="s">
         <v>313</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>314</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -19564,23 +19359,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T14" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AQ51" activeCellId="0" sqref="AQ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="142.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="221" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C1" s="27" t="str">
-        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X1</f>
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!X1</f>
         <v>2-d: Please rate how much you agree:  [The robot was able to understand (anticipate) my actions during the task.]</v>
       </c>
-      <c r="D1" s="31" t="str">
+      <c r="D1" s="3" t="str">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV1</f>
         <v>3-d: Please rate how much you agree:  [The robot was able to understand (anticipate) my actions during the task.]</v>
       </c>
@@ -19598,7 +19393,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW1</f>
         <v>3-d: Please rate how much you agree:  [The robot acted as I expected. ]</v>
       </c>
-      <c r="J1" s="31" t="str">
+      <c r="J1" s="3" t="str">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO1</f>
         <v>7-d: Please rate how much you agree:  [The robot acted as I expected. ]</v>
       </c>
@@ -19608,7 +19403,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z1</f>
         <v>2-d: Please rate how much you agree:  [The robot took over at the right times when I needed assistance. ]</v>
       </c>
-      <c r="N1" s="31" t="str">
+      <c r="N1" s="3" t="str">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX1</f>
         <v>3-d: Please rate how much you agree:  [The robot took over at the right times when I needed assistance. ]</v>
       </c>
@@ -19619,13 +19414,59 @@
       <c r="P1" s="0" t="s">
         <v>299</v>
       </c>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AD1</f>
+        <v>2-e: Please rate how much you agree:  [I trust the robot with the task.]</v>
+      </c>
+      <c r="T1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB1</f>
+        <v>3-e: Please rate how much you agree:  [I trust the robot with the task.]</v>
+      </c>
+      <c r="U1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET1</f>
+        <v>7-e: Please rate how much you agree:  [I trust the robot with the task.]</v>
+      </c>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB1</f>
+        <v>3-e: Please rate how much you agree:  [I trust the robot with the task.]</v>
+      </c>
+      <c r="AA1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ1</f>
+        <v>4-e: Please rate how much you agree:  [I trust the robot with the task.]</v>
+      </c>
+      <c r="AB1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!CX1</f>
+        <v>5-e: Please rate how much you agree:  [I trust the robot with the task.]</v>
+      </c>
+      <c r="AC1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DV1</f>
+        <v>6-e: Please rate how much you agree:  [I trust the robot with the task.]</v>
+      </c>
+      <c r="AD1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET1</f>
+        <v>7-e: Please rate how much you agree:  [I trust the robot with the task.]</v>
+      </c>
+      <c r="AE1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!GQ1</f>
+        <v>9-e: Please rate how much you agree:  [I trust the robot with the task.]</v>
+      </c>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="n">
-        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X2</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!X2</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV2</f>
         <v>4</v>
       </c>
@@ -19643,7 +19484,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW2</f>
         <v>4</v>
       </c>
-      <c r="J2" s="31" t="n">
+      <c r="J2" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO2</f>
         <v>4</v>
       </c>
@@ -19653,7 +19494,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z2</f>
         <v>4</v>
       </c>
-      <c r="N2" s="31" t="n">
+      <c r="N2" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX2</f>
         <v>4</v>
       </c>
@@ -19661,13 +19502,59 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP2</f>
         <v>4</v>
       </c>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AD2</f>
+        <v>4</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB2</f>
+        <v>4</v>
+      </c>
+      <c r="U2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET2</f>
+        <v>4</v>
+      </c>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB2</f>
+        <v>4</v>
+      </c>
+      <c r="AA2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ2</f>
+        <v>4</v>
+      </c>
+      <c r="AB2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!CX2</f>
+        <v>4</v>
+      </c>
+      <c r="AC2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DV2</f>
+        <v>4</v>
+      </c>
+      <c r="AD2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET2</f>
+        <v>4</v>
+      </c>
+      <c r="AE2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!GQ2</f>
+        <v>4</v>
+      </c>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="27" t="n">
-        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X3</f>
-        <v>3</v>
-      </c>
-      <c r="D3" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!X3</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV3</f>
         <v>4</v>
       </c>
@@ -19685,7 +19572,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW3</f>
         <v>4</v>
       </c>
-      <c r="J3" s="31" t="n">
+      <c r="J3" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO3</f>
         <v>5</v>
       </c>
@@ -19695,7 +19582,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z3</f>
         <v>4</v>
       </c>
-      <c r="N3" s="31" t="n">
+      <c r="N3" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX3</f>
         <v>3</v>
       </c>
@@ -19703,13 +19590,59 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP3</f>
         <v>5</v>
       </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AD3</f>
+        <v>5</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB3</f>
+        <v>5</v>
+      </c>
+      <c r="U3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET3</f>
+        <v>5</v>
+      </c>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB3</f>
+        <v>5</v>
+      </c>
+      <c r="AA3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ3</f>
+        <v>5</v>
+      </c>
+      <c r="AB3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!CX3</f>
+        <v>5</v>
+      </c>
+      <c r="AC3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DV3</f>
+        <v>5</v>
+      </c>
+      <c r="AD3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET3</f>
+        <v>5</v>
+      </c>
+      <c r="AE3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!GQ3</f>
+        <v>5</v>
+      </c>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="27" t="n">
-        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X4</f>
-        <v>2</v>
-      </c>
-      <c r="D4" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!X4</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV4</f>
         <v>3</v>
       </c>
@@ -19727,7 +19660,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW4</f>
         <v>4</v>
       </c>
-      <c r="J4" s="31" t="n">
+      <c r="J4" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO4</f>
         <v>5</v>
       </c>
@@ -19737,7 +19670,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z4</f>
         <v>4</v>
       </c>
-      <c r="N4" s="31" t="n">
+      <c r="N4" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX4</f>
         <v>2</v>
       </c>
@@ -19745,13 +19678,59 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP4</f>
         <v>5</v>
       </c>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AD4</f>
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB4</f>
+        <v>4</v>
+      </c>
+      <c r="U4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET4</f>
+        <v>5</v>
+      </c>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB4</f>
+        <v>4</v>
+      </c>
+      <c r="AA4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ4</f>
+        <v>2</v>
+      </c>
+      <c r="AB4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!CX4</f>
+        <v>4</v>
+      </c>
+      <c r="AC4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DV4</f>
+        <v>3</v>
+      </c>
+      <c r="AD4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET4</f>
+        <v>5</v>
+      </c>
+      <c r="AE4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!GQ4</f>
+        <v>5</v>
+      </c>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="27" t="n">
-        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X5</f>
-        <v>5</v>
-      </c>
-      <c r="D5" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!X5</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV5</f>
         <v>3</v>
       </c>
@@ -19769,7 +19748,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW5</f>
         <v>3</v>
       </c>
-      <c r="J5" s="31" t="n">
+      <c r="J5" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO5</f>
         <v>4</v>
       </c>
@@ -19779,7 +19758,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z5</f>
         <v>3</v>
       </c>
-      <c r="N5" s="31" t="n">
+      <c r="N5" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX5</f>
         <v>2</v>
       </c>
@@ -19787,13 +19766,59 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP5</f>
         <v>3</v>
       </c>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AD5</f>
+        <v>4</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB5</f>
+        <v>4</v>
+      </c>
+      <c r="U5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET5</f>
+        <v>4</v>
+      </c>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB5</f>
+        <v>4</v>
+      </c>
+      <c r="AA5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ5</f>
+        <v>3</v>
+      </c>
+      <c r="AB5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!CX5</f>
+        <v>3</v>
+      </c>
+      <c r="AC5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DV5</f>
+        <v>4</v>
+      </c>
+      <c r="AD5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET5</f>
+        <v>4</v>
+      </c>
+      <c r="AE5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!GQ5</f>
+        <v>4</v>
+      </c>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="27" t="n">
-        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X6</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!X6</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV6</f>
         <v>3</v>
       </c>
@@ -19811,7 +19836,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW6</f>
         <v>3</v>
       </c>
-      <c r="J6" s="31" t="n">
+      <c r="J6" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO6</f>
         <v>5</v>
       </c>
@@ -19821,7 +19846,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z6</f>
         <v>2</v>
       </c>
-      <c r="N6" s="31" t="n">
+      <c r="N6" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX6</f>
         <v>4</v>
       </c>
@@ -19829,13 +19854,59 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP6</f>
         <v>4</v>
       </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AD6</f>
+        <v>5</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB6</f>
+        <v>3</v>
+      </c>
+      <c r="U6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET6</f>
+        <v>5</v>
+      </c>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB6</f>
+        <v>3</v>
+      </c>
+      <c r="AA6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ6</f>
+        <v>4</v>
+      </c>
+      <c r="AB6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!CX6</f>
+        <v>4</v>
+      </c>
+      <c r="AC6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DV6</f>
+        <v>5</v>
+      </c>
+      <c r="AD6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET6</f>
+        <v>5</v>
+      </c>
+      <c r="AE6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!GQ6</f>
+        <v>5</v>
+      </c>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="27" t="n">
-        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X7</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!X7</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV7</f>
         <v>4</v>
       </c>
@@ -19853,7 +19924,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW7</f>
         <v>4</v>
       </c>
-      <c r="J7" s="31" t="n">
+      <c r="J7" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO7</f>
         <v>5</v>
       </c>
@@ -19863,7 +19934,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z7</f>
         <v>5</v>
       </c>
-      <c r="N7" s="31" t="n">
+      <c r="N7" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX7</f>
         <v>4</v>
       </c>
@@ -19871,13 +19942,59 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP7</f>
         <v>5</v>
       </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AD7</f>
+        <v>4</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB7</f>
+        <v>4</v>
+      </c>
+      <c r="U7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET7</f>
+        <v>5</v>
+      </c>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB7</f>
+        <v>4</v>
+      </c>
+      <c r="AA7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ7</f>
+        <v>5</v>
+      </c>
+      <c r="AB7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!CX7</f>
+        <v>5</v>
+      </c>
+      <c r="AC7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DV7</f>
+        <v>4</v>
+      </c>
+      <c r="AD7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET7</f>
+        <v>5</v>
+      </c>
+      <c r="AE7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!GQ7</f>
+        <v>5</v>
+      </c>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="27" t="n">
-        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X8</f>
-        <v>3</v>
-      </c>
-      <c r="D8" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!X8</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV8</f>
         <v>3</v>
       </c>
@@ -19895,7 +20012,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW8</f>
         <v>5</v>
       </c>
-      <c r="J8" s="31" t="n">
+      <c r="J8" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO8</f>
         <v>5</v>
       </c>
@@ -19905,7 +20022,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z8</f>
         <v>3</v>
       </c>
-      <c r="N8" s="31" t="n">
+      <c r="N8" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX8</f>
         <v>3</v>
       </c>
@@ -19913,13 +20030,59 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP8</f>
         <v>5</v>
       </c>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AD8</f>
+        <v>4</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB8</f>
+        <v>4</v>
+      </c>
+      <c r="U8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET8</f>
+        <v>5</v>
+      </c>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB8</f>
+        <v>4</v>
+      </c>
+      <c r="AA8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ8</f>
+        <v>5</v>
+      </c>
+      <c r="AB8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!CX8</f>
+        <v>5</v>
+      </c>
+      <c r="AC8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DV8</f>
+        <v>4</v>
+      </c>
+      <c r="AD8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET8</f>
+        <v>5</v>
+      </c>
+      <c r="AE8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!GQ8</f>
+        <v>4</v>
+      </c>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="27" t="n">
-        <f aca="false">='Dobot_questionnaire_V2.0_same_taskset'!X9</f>
-        <v>3</v>
-      </c>
-      <c r="D9" s="31" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!X9</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AV9</f>
         <v>3</v>
       </c>
@@ -19937,7 +20100,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AW9</f>
         <v>3</v>
       </c>
-      <c r="J9" s="31" t="n">
+      <c r="J9" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EO9</f>
         <v>4</v>
       </c>
@@ -19947,7 +20110,7 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!Z9</f>
         <v>2</v>
       </c>
-      <c r="N9" s="31" t="n">
+      <c r="N9" s="3" t="n">
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AX9</f>
         <v>3</v>
       </c>
@@ -19955,10 +20118,56 @@
         <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!EP9</f>
         <v>4</v>
       </c>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AD9</f>
+        <v>3</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB9</f>
+        <v>3</v>
+      </c>
+      <c r="U9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET9</f>
+        <v>4</v>
+      </c>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BB9</f>
+        <v>3</v>
+      </c>
+      <c r="AA9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!BZ9</f>
+        <v>4</v>
+      </c>
+      <c r="AB9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!CX9</f>
+        <v>3</v>
+      </c>
+      <c r="AC9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DV9</f>
+        <v>3</v>
+      </c>
+      <c r="AD9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!ET9</f>
+        <v>4</v>
+      </c>
+      <c r="AE9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!GQ9</f>
+        <v>4</v>
+      </c>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="27"/>
-      <c r="D10" s="31"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -19970,6 +20179,25 @@
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="27"/>
@@ -19985,6 +20213,25 @@
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="27"/>
@@ -20000,52 +20247,104 @@
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
-    </row>
-    <row r="13" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
         <v>285</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="E13" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="F13" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>319</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="J13" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="K13" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>319</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N13" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="N13" s="27" t="s">
+      <c r="O13" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="P13" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="P13" s="0" t="s">
+      <c r="R13" s="27"/>
+      <c r="S13" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="T13" s="27" t="s">
         <v>319</v>
       </c>
+      <c r="U13" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="V13" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA13" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB13" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
@@ -20102,8 +20401,52 @@
         <f aca="false">AVERAGE(M2:O9)</f>
         <v>3.625</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R14" s="27"/>
+      <c r="S14" s="27" t="n">
+        <f aca="false">AVERAGE(S2:S9)</f>
+        <v>3.875</v>
+      </c>
+      <c r="T14" s="27" t="n">
+        <f aca="false">AVERAGE(T2:T9)</f>
+        <v>3.875</v>
+      </c>
+      <c r="U14" s="27" t="n">
+        <f aca="false">AVERAGE(U2:U9)</f>
+        <v>4.625</v>
+      </c>
+      <c r="V14" s="27" t="n">
+        <f aca="false">AVERAGE(S2:U9)</f>
+        <v>4.125</v>
+      </c>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27" t="n">
+        <f aca="false">AVERAGE(Z2:Z9)</f>
+        <v>3.875</v>
+      </c>
+      <c r="AA14" s="27" t="n">
+        <f aca="false">AVERAGE(AA2:AA9)</f>
+        <v>4</v>
+      </c>
+      <c r="AB14" s="27" t="n">
+        <f aca="false">AVERAGE(AB2:AB9)</f>
+        <v>4.125</v>
+      </c>
+      <c r="AC14" s="27" t="n">
+        <f aca="false">AVERAGE(AC2:AC9)</f>
+        <v>4</v>
+      </c>
+      <c r="AD14" s="27" t="n">
+        <f aca="false">AVERAGE(AD2:AD9)</f>
+        <v>4.625</v>
+      </c>
+      <c r="AE14" s="27" t="n">
+        <f aca="false">AVERAGE(AE2:AE9)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>296</v>
       </c>
@@ -20164,68 +20507,90 @@
         <f aca="false">STDEV(P2:P9)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
         <v>297</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="31" t="n">
+      <c r="C16" s="3" t="n">
         <f aca="false">STDEV(C2:C9)/SQRT(COUNT(C2:C9))</f>
         <v>0.327326835353989</v>
       </c>
-      <c r="D16" s="31" t="n">
+      <c r="D16" s="3" t="n">
         <f aca="false">STDEV(D2:D9)/SQRT(COUNT(D2:D9))</f>
         <v>0.18298126367785</v>
       </c>
-      <c r="E16" s="31" t="n">
+      <c r="E16" s="3" t="n">
         <f aca="false">STDEV(E2:E9)/SQRT(COUNT(E2:E9))</f>
         <v>0.188982236504614</v>
       </c>
-      <c r="F16" s="31" t="e">
+      <c r="F16" s="3" t="e">
         <f aca="false">STDEV(F2:F9)/SQRT(COUNT(F2:F9))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="31" t="e">
+      <c r="G16" s="3" t="e">
         <f aca="false">STDEV(G2:G9)/SQRT(COUNT(G2:G9))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="31" t="n">
+      <c r="H16" s="3" t="n">
         <f aca="false">STDEV(H2:H9)/SQRT(COUNT(H2:H9))</f>
         <v>0.350382444113368</v>
       </c>
-      <c r="I16" s="31" t="n">
+      <c r="I16" s="3" t="n">
         <f aca="false">STDEV(I2:I9)/SQRT(COUNT(I2:I9))</f>
         <v>0.25</v>
       </c>
-      <c r="J16" s="31" t="n">
+      <c r="J16" s="3" t="n">
         <f aca="false">STDEV(J2:J9)/SQRT(COUNT(J2:J9))</f>
         <v>0.18298126367785</v>
       </c>
-      <c r="K16" s="31" t="e">
+      <c r="K16" s="3" t="e">
         <f aca="false">STDEV(K2:K9)/SQRT(COUNT(K2:K9))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="31" t="e">
+      <c r="L16" s="3" t="e">
         <f aca="false">STDEV(L2:L9)/SQRT(COUNT(L2:L9))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="31" t="n">
+      <c r="M16" s="3" t="n">
         <f aca="false">STDEV(M2:M9)/SQRT(COUNT(M2:M9))</f>
         <v>0.375</v>
       </c>
-      <c r="N16" s="31" t="n">
+      <c r="N16" s="3" t="n">
         <f aca="false">STDEV(N2:N9)/SQRT(COUNT(N2:N9))</f>
         <v>0.295048422176041</v>
       </c>
-      <c r="O16" s="31" t="n">
+      <c r="O16" s="3" t="n">
         <f aca="false">STDEV(O2:O9)/SQRT(COUNT(O2:O9))</f>
         <v>0.263052140404576</v>
       </c>
-      <c r="P16" s="31" t="e">
+      <c r="P16" s="3" t="e">
         <f aca="false">STDEV(P2:P9)/SQRT(COUNT(P2:P9))</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
@@ -20245,6 +20610,17 @@
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -20266,13 +20642,13 @@
   </sheetPr>
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21754,13 +22130,13 @@
   </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.5102040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.0816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23224,7 +23600,7 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -23605,7 +23981,7 @@
       </c>
       <c r="G23" s="17" t="n">
         <f aca="false">FDIST('Confident remembering rules'!$F$23, 'Confident remembering rules'!$D$23, 'Confident remembering rules'!$D$24)</f>
-        <v>0.0205363820064574</v>
+        <v>0.0205363820064573</v>
       </c>
       <c r="H23" s="17" t="n">
         <f aca="false">FINV('Confident remembering rules'!$C$15, 'Confident remembering rules'!$D$23, 'Confident remembering rules'!$D$24)</f>
@@ -23668,7 +24044,7 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -24084,7 +24460,7 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -24494,7 +24870,7 @@
   </sheetPr>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -25211,7 +25587,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -25687,7 +26063,7 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/code/results/Participants/Analysis/Jamovi_analysis/Dobot_questionnaire_V2.0_same_taskset_work_edition.xlsx
+++ b/code/results/Participants/Analysis/Jamovi_analysis/Dobot_questionnaire_V2.0_same_taskset_work_edition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Dobot_questionnaire_V2.0_same_taskset" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="323">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -865,6 +865,15 @@
     <t xml:space="preserve">ANOVA task 1-4</t>
   </si>
   <si>
+    <t xml:space="preserve">type1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type1</t>
   </si>
   <si>
@@ -928,18 +937,12 @@
     <t xml:space="preserve">SEM</t>
   </si>
   <si>
-    <t xml:space="preserve">type1</t>
-  </si>
-  <si>
     <t xml:space="preserve">SUM</t>
   </si>
   <si>
     <t xml:space="preserve">type2</t>
   </si>
   <si>
-    <t xml:space="preserve">type4</t>
-  </si>
-  <si>
     <t xml:space="preserve">STDEV</t>
   </si>
   <si>
@@ -983,9 +986,6 @@
   </si>
   <si>
     <t xml:space="preserve">Type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type 4</t>
   </si>
   <si>
     <t xml:space="preserve">Types 1,2,4</t>
@@ -1011,7 +1011,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1041,7 +1041,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1052,7 +1052,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1065,11 +1065,7 @@
     </font>
     <font>
       <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1208,7 +1204,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1333,10 +1329,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1414,6 +1406,45 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="2000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>I lost my attention during the task</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1424,11 +1455,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet10!$B$13</c:f>
+              <c:f>'Attention lost'!$B$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Type1</c:v>
+                  <c:v>type1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1443,9 +1474,18 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1453,12 +1493,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet10!$B$14</c:f>
+              <c:f>'Attention lost'!$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.125</c:v>
+                  <c:v>2.28571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,56 +1509,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet10!$C$13</c:f>
+              <c:f>'Attention lost'!$C$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Type2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet10!$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet10!$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Type4</c:v>
+                  <c:v>type4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1535,7 +1530,7 @@
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1543,24 +1538,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet10!$D$14</c:f>
+              <c:f>'Attention lost'!$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.75</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="98080419"/>
-        <c:axId val="64825834"/>
+        <c:overlap val="-20"/>
+        <c:axId val="25014288"/>
+        <c:axId val="6934779"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98080419"/>
+        <c:axId val="25014288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,14 +1590,1762 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64825834"/>
+        <c:crossAx val="6934779"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64825834"/>
+        <c:axId val="6934779"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25014288"/>
+        <c:crossesAt val="-2147483648"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0821519610035329"/>
+          <c:y val="0.0190587320108907"/>
+          <c:w val="0.410580922141228"/>
+          <c:h val="0.978996499416569"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'General questions'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasks became more tedious</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'General questions'!$B$3:$B$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'General questions'!$B$3:$B$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'General questions'!$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'General questions'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasks became more challenging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'General questions'!$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'General questions'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I became more exhausted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'General questions'!$B$3:$B$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'General questions'!$B$3:$B$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'General questions'!$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'General questions'!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A robot collaboration is beneficial in such tasks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'General questions'!$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="39886798"/>
+        <c:axId val="61039517"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39886798"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61039517"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="61039517"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.000447207191091633"/>
+              <c:y val="0.710132244262933"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39886798"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.492732883144761"/>
+          <c:y val="0.0900427849085959"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Mean of NASA-TLX over 8 participants</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>type1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'NASA-TLX'!$C$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>17.2828362421053</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'NASA-TLX'!$C$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>17.2828362421053</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>47.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>type2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'NASA-TLX'!$C$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>14.4759653021334</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'NASA-TLX'!$C$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>14.4759653021334</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>type4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'NASA-TLX'!$C$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>18.9543624831556</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'NASA-TLX'!$C$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>18.9543624831556</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="41194463"/>
+        <c:axId val="32969928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="41194463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32969928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="32969928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Mean of NASA-TLX</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41194463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="999999"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>NASA-TLX: Mental demand</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.312016806722689"/>
+          <c:y val="0.0363292967448061"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>type1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>36.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$C$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>type2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$D$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>type4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>83.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="55996642"/>
+        <c:axId val="65525769"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55996642"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65525769"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65525769"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means x5 of NASA-TLX responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55996642"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>NASA-TLX: mental dimension over long term</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$B$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>round1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$C$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>round2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$D$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>round3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$D$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$E$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>round4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$E$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="80494261"/>
+        <c:axId val="18186177"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80494261"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18186177"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="18186177"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +3389,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98080419"/>
+        <c:crossAx val="80494261"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1683,7 +3426,359 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>NASA-TLX: Temporal demand</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$S$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>type1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$S$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>39.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$T$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>type2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$T$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NASA-TLX'!$U$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>type4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'NASA-TLX'!$U$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>53.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="6464179"/>
+        <c:axId val="45196738"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="6464179"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45196738"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45196738"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means x5 of NASA-TLX responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6464179"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1914,11 +4009,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="98365529"/>
-        <c:axId val="45648462"/>
+        <c:axId val="77254450"/>
+        <c:axId val="83427463"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98365529"/>
+        <c:axId val="77254450"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,14 +4048,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45648462"/>
+        <c:crossAx val="83427463"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45648462"/>
+        <c:axId val="83427463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,7 +4137,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98365529"/>
+        <c:crossAx val="77254450"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2079,7 +4174,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2310,11 +4405,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="66255844"/>
-        <c:axId val="82036805"/>
+        <c:axId val="65252456"/>
+        <c:axId val="87182200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66255844"/>
+        <c:axId val="65252456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,14 +4444,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82036805"/>
+        <c:crossAx val="87182200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82036805"/>
+        <c:axId val="87182200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,7 +4533,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66255844"/>
+        <c:crossAx val="65252456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2475,7 +4570,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2520,8 +4615,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.095672514619883"/>
-          <c:y val="0.0299021787461094"/>
+          <c:x val="0.0963206940874036"/>
+          <c:y val="0.0309198086975865"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2714,11 +4809,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="4967763"/>
-        <c:axId val="43366462"/>
+        <c:axId val="62184194"/>
+        <c:axId val="15826285"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="4967763"/>
+        <c:axId val="62184194"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,14 +4848,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43366462"/>
+        <c:crossAx val="15826285"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43366462"/>
+        <c:axId val="15826285"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,7 +4937,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4967763"/>
+        <c:crossAx val="62184194"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2879,7 +4974,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3110,11 +5205,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="19093837"/>
-        <c:axId val="69268345"/>
+        <c:axId val="62681252"/>
+        <c:axId val="63766785"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="19093837"/>
+        <c:axId val="62681252"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,14 +5244,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69268345"/>
+        <c:crossAx val="63766785"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69268345"/>
+        <c:axId val="63766785"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3240,7 +5335,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19093837"/>
+        <c:crossAx val="62681252"/>
         <c:crossesAt val="-2147483648"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3277,7 +5372,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3350,6 +5445,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3394,6 +5490,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3438,6 +5535,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3460,11 +5558,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="92893654"/>
-        <c:axId val="36413695"/>
+        <c:axId val="92788739"/>
+        <c:axId val="11769795"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92893654"/>
+        <c:axId val="92788739"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3537,14 +5635,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36413695"/>
+        <c:crossAx val="11769795"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36413695"/>
+        <c:axId val="11769795"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3599,7 +5697,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3628,7 +5726,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92893654"/>
+        <c:crossAx val="92788739"/>
         <c:crossesAt val="-2147483648"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3666,6 +5764,1872 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="55178331"/>
+        <c:axId val="82227453"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55178331"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82227453"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82227453"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55178331"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>I was confident in remembering the rules and able to execute the task </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$AY$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$AY$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$AZ$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$AZ$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$BA$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$BA$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="24867524"/>
+        <c:axId val="8527616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="24867524"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8527616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8527616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24867524"/>
+        <c:crossesAt val="-2147483648"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>The robot could anticipate my actions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="77218933"/>
+        <c:axId val="31923245"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77218933"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31923245"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="31923245"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77218933"/>
+        <c:crossesAt val="-2147483648"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>The robot acted as I expected</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1688041"/>
+        <c:axId val="70201366"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1688041"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70201366"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70201366"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1688041"/>
+        <c:crossesAt val="-2147483648"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>The robot took over at the right times, 
+when I needed assistance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20933408305888"/>
+          <c:y val="0.0325881436992548"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$M$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$O$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="49981533"/>
+        <c:axId val="35007863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="49981533"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35007863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="35007863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49981533"/>
+        <c:crossesAt val="-2147483648"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>I trust the robot with the task</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$U$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Type 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robot_acted_as_I_expected || took over at the right times'!$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="41821511"/>
+        <c:axId val="39469871"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="41821511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39469871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39469871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41821511"/>
+        <c:crossesAt val="-2147483648"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3872,11 +7836,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39162251"/>
-        <c:axId val="20475834"/>
+        <c:axId val="43851390"/>
+        <c:axId val="48595519"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39162251"/>
+        <c:axId val="43851390"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,12 +7875,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20475834"/>
+        <c:crossAx val="48595519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20475834"/>
+        <c:axId val="48595519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3960,7 +7924,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39162251"/>
+        <c:crossAx val="43851390"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3997,7 +7961,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4042,8 +8006,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.285178124627666"/>
-          <c:y val="0.0283275126115638"/>
+          <c:x val="0.285649143378282"/>
+          <c:y val="0.0292176276451175"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4055,10 +8019,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0755391397593233"/>
-          <c:y val="0.0174621653084983"/>
-          <c:w val="0.570356249255332"/>
-          <c:h val="0.979724485836244"/>
+          <c:x val="0.0755651097648362"/>
+          <c:y val="0.017472335468841"/>
+          <c:w val="0.570125724708488"/>
+          <c:h val="0.979130265967773"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4627,11 +8591,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="40286258"/>
-        <c:axId val="45318264"/>
+        <c:axId val="97474993"/>
+        <c:axId val="33361654"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40286258"/>
+        <c:axId val="97474993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4666,14 +8630,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45318264"/>
+        <c:crossAx val="33361654"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45318264"/>
+        <c:axId val="33361654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4757,7 +8721,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40286258"/>
+        <c:crossAx val="97474993"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4794,7 +8758,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4844,10 +8808,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0823142342789745"/>
-          <c:y val="0.0192083818393481"/>
-          <c:w val="0.570364392575579"/>
-          <c:h val="0.979724485836244"/>
+          <c:x val="0.082186179637454"/>
+          <c:y val="0.0192195690157251"/>
+          <c:w val="0.570124028894644"/>
+          <c:h val="0.979130265967773"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5198,11 +9162,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="56585654"/>
-        <c:axId val="58335858"/>
+        <c:axId val="31237525"/>
+        <c:axId val="67289704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56585654"/>
+        <c:axId val="31237525"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5237,14 +9201,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58335858"/>
+        <c:crossAx val="67289704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58335858"/>
+        <c:axId val="67289704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -5301,8 +9265,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.000434539698305295"/>
-              <c:y val="0.711389212262321"/>
+              <c:x val="0.000477034210167644"/>
+              <c:y val="0.710250436808387"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5336,7 +9300,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56585654"/>
+        <c:crossAx val="31237525"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5373,7 +9337,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5817,11 +9781,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48294159"/>
-        <c:axId val="40509818"/>
+        <c:axId val="83110194"/>
+        <c:axId val="45525566"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48294159"/>
+        <c:axId val="83110194"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5856,12 +9820,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40509818"/>
+        <c:crossAx val="45525566"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40509818"/>
+        <c:axId val="45525566"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5907,7 +9871,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48294159"/>
+        <c:crossAx val="83110194"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5932,448 +9896,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Mean of NASA-TLX over 8 participants</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'NASA-TLX'!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>type1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'NASA-TLX'!$C$18</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>17.2828362421053</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'NASA-TLX'!$C$18</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>17.2828362421053</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:val>
-            <c:numRef>
-              <c:f>'NASA-TLX'!$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>47.125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'NASA-TLX'!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>type2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'NASA-TLX'!$C$19</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>14.4759653021334</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'NASA-TLX'!$C$19</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>14.4759653021334</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:val>
-            <c:numRef>
-              <c:f>'NASA-TLX'!$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>56.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'NASA-TLX'!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>type4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'NASA-TLX'!$C$20</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>18.9543624831556</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'NASA-TLX'!$C$20</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>18.9543624831556</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:val>
-            <c:numRef>
-              <c:f>'NASA-TLX'!$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>64.125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-20"/>
-        <c:axId val="77135639"/>
-        <c:axId val="53344861"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="77135639"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="53344861"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="53344861"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Mean of NASA-TLX</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77135639"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="999999"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6422,23 +9944,26 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>NASA-TLX: Mental demand</a:t>
+              <a:t>Task characteristics</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.311400086692674"/>
-          <c:y val="0.0350838236926835"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.082186179637454"/>
+          <c:y val="0.0192195690157251"/>
+          <c:w val="0.570124028894644"/>
+          <c:h val="0.979130265967773"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -6448,18 +9973,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NASA-TLX'!$B$68</c:f>
+              <c:f>'General questions'!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>type1</c:v>
+                  <c:v>Tasks became more challenging</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="579d1c"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6477,12 +10002,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'NASA-TLX'!$B$69</c:f>
+              <c:f>'General questions'!$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>36.875</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6493,18 +10018,144 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NASA-TLX'!$C$68</c:f>
+              <c:f>'General questions'!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>type2</c:v>
+                  <c:v>I became more exhausted</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'General questions'!$B$3:$B$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'General questions'!$B$3:$B$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'General questions'!$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'General questions'!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A robot collaboration is beneficial in such tasks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6522,57 +10173,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'NASA-TLX'!$C$69</c:f>
+              <c:f>'General questions'!$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'NASA-TLX'!$D$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>type4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'NASA-TLX'!$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>83.125</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6580,11 +10186,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-20"/>
-        <c:axId val="61544293"/>
-        <c:axId val="62946275"/>
+        <c:axId val="58615174"/>
+        <c:axId val="70788168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61544293"/>
+        <c:axId val="58615174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6619,17 +10225,18 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62946275"/>
+        <c:crossAx val="70788168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62946275"/>
+        <c:axId val="70788168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6673,11 +10280,19 @@
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Means x5 of NASA-TLX responses</a:t>
+                  <a:t>Means of Likert scale responses</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.000477034210167644"/>
+              <c:y val="0.710056299747622"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6709,7 +10324,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61544293"/>
+        <c:crossAx val="58615174"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6751,46 +10366,18 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>NASA-TLX: mental dimension over long term</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0755601875977071"/>
+          <c:y val="0.0173473684210526"/>
+          <c:w val="0.570168757766465"/>
+          <c:h val="0.9792"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -6800,18 +10387,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NASA-TLX'!$B$105</c:f>
+              <c:f>'General questions'!$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>round1</c:v>
+                  <c:v>The robot adapted to my preferences</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="7e0021"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6821,20 +10408,115 @@
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'General questions'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NASA-TLX'!$B$106</c:f>
+              <c:f>'General questions'!$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6845,18 +10527,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NASA-TLX'!$C$105</c:f>
+              <c:f>'General questions'!$H$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>round2</c:v>
+                  <c:v>I would work with such a robot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="83caff"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6866,20 +10548,115 @@
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'General questions'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NASA-TLX'!$C$106</c:f>
+              <c:f>'General questions'!$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.375</c:v>
+                  <c:v>4.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6890,18 +10667,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NASA-TLX'!$D$105</c:f>
+              <c:f>'General questions'!$J$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>round3</c:v>
+                  <c:v>I liked collaborating with the robot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffd320"/>
+              <a:srgbClr val="aecf00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6911,20 +10688,115 @@
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'General questions'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NASA-TLX'!$D$106</c:f>
+              <c:f>'General questions'!$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10.5</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6935,18 +10807,18 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NASA-TLX'!$E$105</c:f>
+              <c:f>'General questions'!$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>round4</c:v>
+                  <c:v>I became more comfortable, interacting with the robot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="579d1c"/>
+              <a:srgbClr val="4b1f6f"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6956,32 +10828,127 @@
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'General questions'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NASA-TLX'!$E$106</c:f>
+              <c:f>'General questions'!$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.625</c:v>
+                  <c:v>4.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="72207157"/>
-        <c:axId val="72700022"/>
+        <c:overlap val="-20"/>
+        <c:axId val="2864584"/>
+        <c:axId val="15904354"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72207157"/>
+        <c:axId val="2864584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6990,7 +10957,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -7016,330 +10983,18 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72700022"/>
+        <c:crossAx val="15904354"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72700022"/>
+        <c:axId val="15904354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="72207157"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>NASA-TLX: Temporal demand</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'NASA-TLX'!$S$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>type1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'NASA-TLX'!$S$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>39.375</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'NASA-TLX'!$T$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>type2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'NASA-TLX'!$T$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>41.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'NASA-TLX'!$U$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>type4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'NASA-TLX'!$U$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>53.125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-20"/>
-        <c:axId val="93003661"/>
-        <c:axId val="77016446"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="93003661"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77016446"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="77016446"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7383,7 +11038,7 @@
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Means x5 of NASA-TLX responses</a:t>
+                  <a:t>Means of Likert scale responses</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7419,9 +11074,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93003661"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="2864584"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7434,6 +11090,641 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.645728945364172"/>
+          <c:y val="0.266694736842105"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0755289906028255"/>
+          <c:y val="0.0171919770773639"/>
+          <c:w val="0.357667966502589"/>
+          <c:h val="0.978931400640485"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'General questions'!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I would work with such a robot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'General questions'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'General questions'!$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'General questions'!$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I liked collaborating with the robot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="aecf00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'General questions'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'General questions'!$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'General questions'!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I became more comfortable, interacting with the robot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4b1f6f"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'General questions'!$B$14:$K$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.462910049886276</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.991031208965115</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.744023809142845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.06066017177982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.03509833901353</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.83452296039628</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0690449676497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.707106781186548</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.640869944461656</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'General questions'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'General questions'!$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="99018541"/>
+        <c:axId val="33046224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99018541"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33046224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="33046224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="2000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="2000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Means of Likert scale responses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0105798120565109"/>
+              <c:y val="0.954997471768077"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99018541"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.415233650834239"/>
+          <c:y val="0.156076184055284"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7460,16 +11751,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>541440</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1038960</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>394920</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7477,8 +11768,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5113440" y="1201320"/>
-        <a:ext cx="4123800" cy="3234240"/>
+        <a:off x="1807920" y="9710640"/>
+        <a:ext cx="5673600" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>64440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>39240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>214200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8331840" y="1542240"/>
+        <a:ext cx="4283640" cy="3232080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7497,18 +11823,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>192240</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>222840</xdr:rowOff>
+      <xdr:rowOff>220680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2323080" y="2840040"/>
-        <a:ext cx="4157640" cy="3237840"/>
+        <a:off x="2399040" y="2840040"/>
+        <a:ext cx="4289040" cy="3235680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7521,7 +11847,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7532,18 +11858,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>248040</xdr:colOff>
+      <xdr:colOff>245880</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7178400" y="4797720"/>
-        <a:ext cx="6042600" cy="3710520"/>
+        <a:off x="6663960" y="4797720"/>
+        <a:ext cx="5526000" cy="3708360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7562,18 +11888,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19440</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="707040" y="4765680"/>
-        <a:ext cx="5798880" cy="3710520"/>
+        <a:ext cx="5282280" cy="3708360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7591,19 +11917,19 @@
       <xdr:rowOff>108360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1991520</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="5" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19615320" y="5227560"/>
-        <a:ext cx="6333480" cy="3242520"/>
+        <a:off x="18072360" y="5227560"/>
+        <a:ext cx="5816880" cy="3240360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7613,10 +11939,130 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>856440</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>166680</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="856440" y="9238320"/>
+        <a:ext cx="5282280" cy="3708360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>535320</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1552680</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>119520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10488600" y="8929440"/>
+        <a:ext cx="8980560" cy="4274640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1278360</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6120</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>39240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13222440" y="13837680"/>
+        <a:ext cx="11262600" cy="4271400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>785160</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>871920</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>154440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12729240" y="25485840"/>
+        <a:ext cx="8049600" cy="3701880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7627,18 +12073,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPr id="10" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1175760" y="5606280"/>
-        <a:ext cx="4075560" cy="3240360"/>
+        <a:off x="1213560" y="5606280"/>
+        <a:ext cx="4206960" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7657,18 +12103,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>265320</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvPr id="11" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3542400" y="10756440"/>
-        <a:ext cx="4152240" cy="3242160"/>
+        <a:off x="3656520" y="10756440"/>
+        <a:ext cx="4283640" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7687,18 +12133,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>552600</xdr:colOff>
+      <xdr:colOff>550440</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPr id="12" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="395280" y="22582440"/>
-        <a:ext cx="4157640" cy="3237840"/>
+        <a:ext cx="4288680" cy="3235680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7717,18 +12163,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>194040</xdr:colOff>
+      <xdr:colOff>191880</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvPr id="13" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12037680" y="14135400"/>
-        <a:ext cx="4158360" cy="3237840"/>
+        <a:off x="12437640" y="14135400"/>
+        <a:ext cx="4289400" cy="3235680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7741,29 +12187,29 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>46440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>115920</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvPr id="14" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="46440" y="6382080"/>
-        <a:ext cx="4203000" cy="3238200"/>
+        <a:off x="0" y="6462360"/>
+        <a:ext cx="4068000" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7776,24 +12222,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>479520</xdr:colOff>
+      <xdr:colOff>479880</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
+      <xdr:colOff>545760</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvPr id="15" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4613040" y="6369480"/>
-        <a:ext cx="4201920" cy="3238200"/>
+        <a:off x="4480200" y="6415560"/>
+        <a:ext cx="4066560" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7806,24 +12252,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>86040</xdr:colOff>
+      <xdr:colOff>86400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>568800</xdr:colOff>
+      <xdr:colOff>567000</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvPr id="16" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9534600" y="6504480"/>
-        <a:ext cx="4616640" cy="3238200"/>
+        <a:off x="9230400" y="6550200"/>
+        <a:ext cx="4480920" cy="3236400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7837,23 +12283,23 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>20520</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>372600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:colOff>370440</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvPr id="17" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14784120" y="6502320"/>
-        <a:ext cx="5667120" cy="3246120"/>
+        <a:off x="14307840" y="6355800"/>
+        <a:ext cx="5493600" cy="3243960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7868,26 +12314,176 @@
       <xdr:col>36</xdr:col>
       <xdr:colOff>559440</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>414360</xdr:colOff>
+      <xdr:colOff>412200</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvPr id="18" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21819240" y="6588720"/>
-        <a:ext cx="5760360" cy="3233520"/>
+        <a:off x="21133440" y="6588720"/>
+        <a:ext cx="5567760" cy="3231360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>18720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>547560</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="28593720" y="6135120"/>
+        <a:ext cx="5452920" cy="3237480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>60840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="571680" y="11089800"/>
+        <a:ext cx="4068000" cy="3236040"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>407160</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>473040</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>72720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4979160" y="11101680"/>
+        <a:ext cx="4066200" cy="3236040"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47520</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>528120</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>73440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9762840" y="11102040"/>
+        <a:ext cx="4481280" cy="3236400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>417240</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>99360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>167040</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>92160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14704560" y="11113200"/>
+        <a:ext cx="5464800" cy="3243960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7903,223 +12499,224 @@
   </sheetPr>
   <dimension ref="A1:HC21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="GN1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="ET21" activeCellId="0" sqref="ET21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DY1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="GO4" activeCellId="0" sqref="GO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.9234693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.6683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="85.8571428571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="69.7908163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="83.0204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="65.0663265306122"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="75.4591836734694"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="60.6122448979592"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="70.0612244897959"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="106.510204081633"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="93.280612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="92.4693877551021"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="91.9285714285714"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="86.8010204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="80.9948979591837"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="62.7704081632653"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="69.9234693877551"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="59.6683673469388"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="85.8571428571429"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="69.7908163265306"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="83.0204081632653"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="65.0663265306122"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="75.4591836734694"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="60.6122448979592"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="70.0612244897959"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="106.510204081633"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="93.280612244898"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="92.4693877551021"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="91.9285714285714"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="86.8010204081633"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="80.9948979591837"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="62.7704081632653"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="69.9234693877551"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="59.6683673469388"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="85.8571428571429"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="69.7908163265306"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="83.0204081632653"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="65.0663265306122"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="75.4591836734694"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="60.6122448979592"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="70.0612244897959"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="106.510204081633"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="93.280612244898"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="92.4693877551021"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="91.9285714285714"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="86.8010204081633"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="80.9948979591837"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="62.7704081632653"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="69.9234693877551"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="59.6683673469388"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="85.8571428571429"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="69.7908163265306"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="83.0204081632653"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="65.0663265306122"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="75.4591836734694"/>
-    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="60.6122448979592"/>
-    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="70.0612244897959"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="106.510204081633"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="93.280612244898"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="92.4693877551021"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="91.9285714285714"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="86.8010204081633"/>
-    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="80.9948979591837"/>
-    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="62.7704081632653"/>
-    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="102" min="102" style="0" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="69.9234693877551"/>
-    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="59.6683673469388"/>
-    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="85.8571428571429"/>
-    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="69.7908163265306"/>
-    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="83.0204081632653"/>
-    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="65.0663265306122"/>
-    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="75.4591836734694"/>
-    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="60.6122448979592"/>
-    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="70.0612244897959"/>
-    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="106.510204081633"/>
-    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="93.280612244898"/>
-    <col collapsed="false" hidden="false" max="118" min="118" style="0" width="92.4693877551021"/>
-    <col collapsed="false" hidden="false" max="119" min="119" style="0" width="91.9285714285714"/>
-    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="86.8010204081633"/>
-    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="80.9948979591837"/>
-    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="62.7704081632653"/>
-    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="127" min="127" style="0" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="128" min="128" style="0" width="69.9234693877551"/>
-    <col collapsed="false" hidden="false" max="129" min="129" style="0" width="59.6683673469388"/>
-    <col collapsed="false" hidden="false" max="130" min="130" style="0" width="85.8571428571429"/>
-    <col collapsed="false" hidden="false" max="131" min="131" style="0" width="69.7908163265306"/>
-    <col collapsed="false" hidden="false" max="132" min="132" style="0" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="133" min="133" style="0" width="83.0204081632653"/>
-    <col collapsed="false" hidden="false" max="134" min="134" style="0" width="65.0663265306122"/>
-    <col collapsed="false" hidden="false" max="135" min="135" style="0" width="75.4591836734694"/>
-    <col collapsed="false" hidden="false" max="136" min="136" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="137" min="137" style="0" width="60.6122448979592"/>
-    <col collapsed="false" hidden="false" max="138" min="138" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="139" min="139" style="0" width="70.0612244897959"/>
-    <col collapsed="false" hidden="false" max="140" min="140" style="0" width="106.510204081633"/>
-    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="93.280612244898"/>
-    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="92.4693877551021"/>
-    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="91.9285714285714"/>
-    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="86.8010204081633"/>
-    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="80.9948979591837"/>
-    <col collapsed="false" hidden="false" max="147" min="147" style="0" width="62.7704081632653"/>
-    <col collapsed="false" hidden="false" max="148" min="148" style="0" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="149" min="149" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="150" min="150" style="0" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="151" min="151" style="0" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="152" min="152" style="0" width="69.9234693877551"/>
-    <col collapsed="false" hidden="false" max="153" min="153" style="0" width="59.6683673469388"/>
-    <col collapsed="false" hidden="false" max="154" min="154" style="0" width="85.8571428571429"/>
-    <col collapsed="false" hidden="false" max="155" min="155" style="0" width="69.7908163265306"/>
-    <col collapsed="false" hidden="false" max="156" min="156" style="0" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="157" min="157" style="0" width="83.0204081632653"/>
-    <col collapsed="false" hidden="false" max="158" min="158" style="0" width="65.0663265306122"/>
-    <col collapsed="false" hidden="false" max="159" min="159" style="0" width="75.4591836734694"/>
-    <col collapsed="false" hidden="false" max="160" min="160" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="161" min="161" style="0" width="60.6122448979592"/>
-    <col collapsed="false" hidden="false" max="162" min="162" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="163" min="163" style="0" width="70.0612244897959"/>
-    <col collapsed="false" hidden="false" max="164" min="164" style="0" width="106.510204081633"/>
-    <col collapsed="false" hidden="false" max="165" min="165" style="0" width="93.280612244898"/>
-    <col collapsed="false" hidden="false" max="166" min="166" style="0" width="92.4693877551021"/>
-    <col collapsed="false" hidden="false" max="167" min="167" style="0" width="91.9285714285714"/>
-    <col collapsed="false" hidden="false" max="168" min="168" style="0" width="86.8010204081633"/>
-    <col collapsed="false" hidden="false" max="169" min="169" style="0" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="170" min="170" style="0" width="80.9948979591837"/>
-    <col collapsed="false" hidden="false" max="171" min="171" style="0" width="62.7704081632653"/>
-    <col collapsed="false" hidden="false" max="172" min="172" style="0" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="173" min="173" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="174" min="174" style="0" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="175" min="175" style="0" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="176" min="176" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="177" min="177" style="0" width="69.9234693877551"/>
-    <col collapsed="false" hidden="false" max="178" min="178" style="0" width="59.6683673469388"/>
-    <col collapsed="false" hidden="false" max="179" min="179" style="0" width="85.8571428571429"/>
-    <col collapsed="false" hidden="false" max="180" min="180" style="0" width="69.7908163265306"/>
-    <col collapsed="false" hidden="false" max="181" min="181" style="0" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="182" min="182" style="0" width="83.0204081632653"/>
-    <col collapsed="false" hidden="false" max="183" min="183" style="0" width="65.0663265306122"/>
-    <col collapsed="false" hidden="false" max="184" min="184" style="0" width="75.4591836734694"/>
-    <col collapsed="false" hidden="false" max="185" min="185" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="186" min="186" style="0" width="60.6122448979592"/>
-    <col collapsed="false" hidden="false" max="187" min="187" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="188" min="188" style="0" width="70.0612244897959"/>
-    <col collapsed="false" hidden="false" max="189" min="189" style="0" width="106.510204081633"/>
-    <col collapsed="false" hidden="false" max="190" min="190" style="0" width="93.280612244898"/>
-    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="92.4693877551021"/>
-    <col collapsed="false" hidden="false" max="192" min="192" style="0" width="91.9285714285714"/>
-    <col collapsed="false" hidden="false" max="193" min="193" style="0" width="86.8010204081633"/>
-    <col collapsed="false" hidden="false" max="194" min="194" style="0" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="195" min="195" style="0" width="80.9948979591837"/>
-    <col collapsed="false" hidden="false" max="196" min="196" style="0" width="62.7704081632653"/>
-    <col collapsed="false" hidden="false" max="197" min="197" style="0" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="198" min="198" style="0" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="199" min="199" style="0" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="200" min="200" style="0" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="201" min="201" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="202" min="202" style="0" width="89.3622448979592"/>
-    <col collapsed="false" hidden="false" max="203" min="203" style="0" width="76.1377551020408"/>
-    <col collapsed="false" hidden="false" max="204" min="204" style="0" width="87.4744897959184"/>
-    <col collapsed="false" hidden="false" max="205" min="205" style="0" width="78.6989795918367"/>
-    <col collapsed="false" hidden="false" max="206" min="206" style="0" width="80.4540816326531"/>
-    <col collapsed="false" hidden="false" max="207" min="207" style="0" width="95.7091836734694"/>
-    <col collapsed="false" hidden="false" max="208" min="208" style="0" width="94.8979591836735"/>
-    <col collapsed="false" hidden="false" max="209" min="209" style="0" width="92.3367346938776"/>
-    <col collapsed="false" hidden="false" max="210" min="210" style="0" width="58.8571428571429"/>
-    <col collapsed="false" hidden="false" max="211" min="211" style="0" width="100.433673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="80.0510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="59.8010204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="77.6224489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="70.3316326530612"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="56.2908163265306"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="65.1989795918367"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="99.4897959183674"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.3928571428571"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="85.7193877551021"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="75.5969387755102"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="58.4489795918367"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="61.2857142857143"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="50.484693877551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="80.0510204081633"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="59.8010204081633"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="77.6224489795918"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="70.3316326530612"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="56.2908163265306"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="65.1989795918367"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="99.4897959183674"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="86.3928571428571"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="85.7193877551021"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="75.5969387755102"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="58.4489795918367"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="61.2857142857143"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="50.484693877551"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="80.0510204081633"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="59.8010204081633"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="77.6224489795918"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="70.3316326530612"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="56.2908163265306"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="65.1989795918367"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="99.4897959183674"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="86.3928571428571"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="85.7193877551021"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="75.5969387755102"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="58.4489795918367"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="61.2857142857143"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="50.484693877551"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="80.0510204081633"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="59.8010204081633"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="77.6224489795918"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="70.3316326530612"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="56.2908163265306"/>
+    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="65.1989795918367"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="99.4897959183674"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="86.3928571428571"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="85.7193877551021"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="75.5969387755102"/>
+    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="58.4489795918367"/>
+    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="61.2857142857143"/>
+    <col collapsed="false" hidden="false" max="102" min="102" style="0" width="50.484693877551"/>
+    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="80.0510204081633"/>
+    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="59.8010204081633"/>
+    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="77.6224489795918"/>
+    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="70.3316326530612"/>
+    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="56.2908163265306"/>
+    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="65.1989795918367"/>
+    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="99.4897959183674"/>
+    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="118" min="118" style="0" width="86.3928571428571"/>
+    <col collapsed="false" hidden="false" max="119" min="119" style="0" width="85.7193877551021"/>
+    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="75.5969387755102"/>
+    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="58.4489795918367"/>
+    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="61.2857142857143"/>
+    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="50.484693877551"/>
+    <col collapsed="false" hidden="false" max="127" min="127" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="128" min="128" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="129" min="129" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="130" min="130" style="0" width="80.0510204081633"/>
+    <col collapsed="false" hidden="false" max="131" min="131" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="132" min="132" style="0" width="59.8010204081633"/>
+    <col collapsed="false" hidden="false" max="133" min="133" style="0" width="77.6224489795918"/>
+    <col collapsed="false" hidden="false" max="134" min="134" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="135" min="135" style="0" width="70.3316326530612"/>
+    <col collapsed="false" hidden="false" max="136" min="136" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="137" min="137" style="0" width="56.2908163265306"/>
+    <col collapsed="false" hidden="false" max="138" min="138" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="139" min="139" style="0" width="65.1989795918367"/>
+    <col collapsed="false" hidden="false" max="140" min="140" style="0" width="99.4897959183674"/>
+    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="86.3928571428571"/>
+    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="85.7193877551021"/>
+    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="75.5969387755102"/>
+    <col collapsed="false" hidden="false" max="147" min="147" style="0" width="58.4489795918367"/>
+    <col collapsed="false" hidden="false" max="148" min="148" style="0" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="149" min="149" style="0" width="61.2857142857143"/>
+    <col collapsed="false" hidden="false" max="150" min="150" style="0" width="50.484693877551"/>
+    <col collapsed="false" hidden="false" max="151" min="151" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="152" min="152" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="153" min="153" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="154" min="154" style="0" width="80.0510204081633"/>
+    <col collapsed="false" hidden="false" max="155" min="155" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="156" min="156" style="0" width="59.8010204081633"/>
+    <col collapsed="false" hidden="false" max="157" min="157" style="0" width="77.6224489795918"/>
+    <col collapsed="false" hidden="false" max="158" min="158" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="159" min="159" style="0" width="70.3316326530612"/>
+    <col collapsed="false" hidden="false" max="160" min="160" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="161" min="161" style="0" width="56.2908163265306"/>
+    <col collapsed="false" hidden="false" max="162" min="162" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="163" min="163" style="0" width="65.1989795918367"/>
+    <col collapsed="false" hidden="false" max="164" min="164" style="0" width="99.4897959183674"/>
+    <col collapsed="false" hidden="false" max="165" min="165" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="166" min="166" style="0" width="86.3928571428571"/>
+    <col collapsed="false" hidden="false" max="167" min="167" style="0" width="85.7193877551021"/>
+    <col collapsed="false" hidden="false" max="168" min="168" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="169" min="169" style="0" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="170" min="170" style="0" width="75.5969387755102"/>
+    <col collapsed="false" hidden="false" max="171" min="171" style="0" width="58.4489795918367"/>
+    <col collapsed="false" hidden="false" max="172" min="172" style="0" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="173" min="173" style="0" width="61.2857142857143"/>
+    <col collapsed="false" hidden="false" max="174" min="174" style="0" width="50.484693877551"/>
+    <col collapsed="false" hidden="false" max="175" min="175" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="176" min="176" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="177" min="177" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="178" min="178" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="179" min="179" style="0" width="80.0510204081633"/>
+    <col collapsed="false" hidden="false" max="180" min="180" style="0" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="181" min="181" style="0" width="59.8010204081633"/>
+    <col collapsed="false" hidden="false" max="182" min="182" style="0" width="77.6224489795918"/>
+    <col collapsed="false" hidden="false" max="183" min="183" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="184" min="184" style="0" width="70.3316326530612"/>
+    <col collapsed="false" hidden="false" max="185" min="185" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="186" min="186" style="0" width="56.2908163265306"/>
+    <col collapsed="false" hidden="false" max="187" min="187" style="0" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="188" min="188" style="0" width="65.1989795918367"/>
+    <col collapsed="false" hidden="false" max="189" min="189" style="0" width="99.4897959183674"/>
+    <col collapsed="false" hidden="false" max="190" min="190" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="86.3928571428571"/>
+    <col collapsed="false" hidden="false" max="192" min="192" style="0" width="85.7193877551021"/>
+    <col collapsed="false" hidden="false" max="193" min="193" style="0" width="80.9948979591837"/>
+    <col collapsed="false" hidden="false" max="194" min="194" style="0" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="195" min="195" style="0" width="75.5969387755102"/>
+    <col collapsed="false" hidden="false" max="196" min="196" style="0" width="58.4489795918367"/>
+    <col collapsed="false" hidden="false" max="197" min="197" style="0" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="198" min="198" style="0" width="61.2857142857143"/>
+    <col collapsed="false" hidden="false" max="199" min="199" style="0" width="50.484693877551"/>
+    <col collapsed="false" hidden="false" max="200" min="200" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="201" min="201" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="202" min="202" style="0" width="83.5612244897959"/>
+    <col collapsed="false" hidden="false" max="203" min="203" style="0" width="71.0051020408163"/>
+    <col collapsed="false" hidden="false" max="204" min="204" style="0" width="81.6683673469388"/>
+    <col collapsed="false" hidden="false" max="205" min="205" style="0" width="73.4336734693878"/>
+    <col collapsed="false" hidden="false" max="206" min="206" style="0" width="75.1887755102041"/>
+    <col collapsed="false" hidden="false" max="207" min="207" style="0" width="89.3622448979592"/>
+    <col collapsed="false" hidden="false" max="208" min="208" style="0" width="88.5561224489796"/>
+    <col collapsed="false" hidden="false" max="209" min="209" style="0" width="86.2602040816327"/>
+    <col collapsed="false" hidden="false" max="210" min="210" style="0" width="54.8061224489796"/>
+    <col collapsed="false" hidden="false" max="211" min="211" style="0" width="93.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="212" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13828,11 +18425,14 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -13874,13 +18474,13 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27"/>
       <c r="B3" s="27" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
@@ -14052,13 +18652,13 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27"/>
       <c r="B13" s="27" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -14067,7 +18667,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B14" s="27" t="n">
         <f aca="false">AVERAGE(B4:B11)</f>
@@ -14088,7 +18688,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B15" s="27" t="n">
         <f aca="false">STDEV(B4:B11)</f>
@@ -14109,7 +18709,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B16" s="27" t="n">
         <v>1</v>
@@ -14430,7 +19030,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14596,18 +19196,19 @@
   </sheetPr>
   <dimension ref="1:368"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H140" activeCellId="0" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>201</v>
@@ -14647,25 +19248,25 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15043,37 +19644,37 @@
     </row>
     <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -15087,7 +19688,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B13" s="3" t="n">
         <f aca="false">AVERAGE(B3:B10)</f>
@@ -15143,7 +19744,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>3</v>
@@ -15199,7 +19800,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B15" s="3" t="n">
         <f aca="false">STDEV(B3:B10)/SQRT(COUNT(B3:B10))</f>
@@ -15256,7 +19857,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>1</v>
@@ -16023,10 +20624,10 @@
         <v>201</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>237</v>
@@ -16669,78 +21270,81 @@
   </sheetPr>
   <dimension ref="A1:AC106"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="X1" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="152.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17528,7 +22132,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B11" s="3" t="n">
         <f aca="false">AVERAGE(B3:B10)</f>
@@ -17618,7 +22222,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B12" s="3" t="n">
         <f aca="false">STDEV(B3:B10)</f>
@@ -17763,10 +22367,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -17784,7 +22388,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">H11</f>
@@ -17810,7 +22414,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">P11</f>
@@ -17836,7 +22440,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">X11</f>
@@ -17862,7 +22466,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -17878,7 +22482,7 @@
       <c r="M52" s="30"/>
       <c r="N52" s="30"/>
       <c r="R52" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S52" s="30"/>
       <c r="T52" s="30"/>
@@ -18421,7 +23025,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="27" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B67" s="27" t="n">
         <f aca="false">AVERAGE(B58:B65)</f>
@@ -18446,13 +23050,13 @@
       <c r="M67" s="27"/>
       <c r="N67" s="27"/>
       <c r="S67" s="27" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="T67" s="27" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="U67" s="27" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="V67" s="27"/>
       <c r="W67" s="27"/>
@@ -18466,13 +23070,13 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="27"/>
       <c r="B68" s="27" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
@@ -18485,7 +23089,7 @@
       <c r="M68" s="27"/>
       <c r="N68" s="27"/>
       <c r="R68" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S68" s="27" t="n">
         <f aca="false">S66*5</f>
@@ -18510,7 +23114,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B69" s="27" t="n">
         <f aca="false">B67*5</f>
@@ -19055,7 +23659,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
@@ -19293,19 +23897,19 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -19359,15 +23963,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:BI17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T14" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ51" activeCellId="0" sqref="AQ51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB16" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z45" activeCellId="0" sqref="Z45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="52" min="51" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="15.7959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="221" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19412,7 +24017,7 @@
         <v>7-d: Please rate how much you agree:  [The robot took over at the right times when I needed assistance. ]</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R1" s="27"/>
       <c r="S1" s="27" t="str">
@@ -19460,6 +24065,28 @@
       <c r="AH1" s="27"/>
       <c r="AI1" s="27"/>
       <c r="AJ1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!J1</f>
+        <v>2-a/b: Please rate how much you agree:  [I was confident in remembering the rules and able to execute the task]</v>
+      </c>
+      <c r="AZ1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AH1</f>
+        <v>3-a/b: Please rate how much you agree:  [I was confident in remembering the rules and able to execute the task]</v>
+      </c>
+      <c r="BA1" s="27" t="str">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DZ1</f>
+        <v>7-a/b: Please rate how much you agree:  [I was confident in remembering the rules and able to execute the task]</v>
+      </c>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="27" t="n">
@@ -19548,6 +24175,28 @@
       <c r="AH2" s="27"/>
       <c r="AI2" s="27"/>
       <c r="AJ2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!J2</f>
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AH2</f>
+        <v>1</v>
+      </c>
+      <c r="BA2" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DZ2</f>
+        <v>1</v>
+      </c>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="27" t="n">
@@ -19636,6 +24285,28 @@
       <c r="AH3" s="27"/>
       <c r="AI3" s="27"/>
       <c r="AJ3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!J3</f>
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AH3</f>
+        <v>5</v>
+      </c>
+      <c r="BA3" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DZ3</f>
+        <v>2</v>
+      </c>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="27"/>
+      <c r="BG3" s="27"/>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="27" t="n">
@@ -19724,6 +24395,28 @@
       <c r="AH4" s="27"/>
       <c r="AI4" s="27"/>
       <c r="AJ4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!J4</f>
+        <v>4</v>
+      </c>
+      <c r="AZ4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AH4</f>
+        <v>2</v>
+      </c>
+      <c r="BA4" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DZ4</f>
+        <v>1</v>
+      </c>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27"/>
+      <c r="BE4" s="27"/>
+      <c r="BF4" s="27"/>
+      <c r="BG4" s="27"/>
+      <c r="BH4" s="27"/>
+      <c r="BI4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="27" t="n">
@@ -19812,6 +24505,28 @@
       <c r="AH5" s="27"/>
       <c r="AI5" s="27"/>
       <c r="AJ5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!J5</f>
+        <v>4</v>
+      </c>
+      <c r="AZ5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AH5</f>
+        <v>3</v>
+      </c>
+      <c r="BA5" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DZ5</f>
+        <v>1</v>
+      </c>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="27"/>
+      <c r="BE5" s="27"/>
+      <c r="BF5" s="27"/>
+      <c r="BG5" s="27"/>
+      <c r="BH5" s="27"/>
+      <c r="BI5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="27" t="n">
@@ -19900,6 +24615,28 @@
       <c r="AH6" s="27"/>
       <c r="AI6" s="27"/>
       <c r="AJ6" s="27"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="27"/>
+      <c r="AY6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!J6</f>
+        <v>3</v>
+      </c>
+      <c r="AZ6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AH6</f>
+        <v>4</v>
+      </c>
+      <c r="BA6" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DZ6</f>
+        <v>2</v>
+      </c>
+      <c r="BB6" s="27"/>
+      <c r="BC6" s="27"/>
+      <c r="BD6" s="27"/>
+      <c r="BE6" s="27"/>
+      <c r="BF6" s="27"/>
+      <c r="BG6" s="27"/>
+      <c r="BH6" s="27"/>
+      <c r="BI6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="27" t="n">
@@ -19988,6 +24725,28 @@
       <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
       <c r="AJ7" s="27"/>
+      <c r="AW7" s="27"/>
+      <c r="AX7" s="27"/>
+      <c r="AY7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!J7</f>
+        <v>3</v>
+      </c>
+      <c r="AZ7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AH7</f>
+        <v>5</v>
+      </c>
+      <c r="BA7" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DZ7</f>
+        <v>2</v>
+      </c>
+      <c r="BB7" s="27"/>
+      <c r="BC7" s="27"/>
+      <c r="BD7" s="27"/>
+      <c r="BE7" s="27"/>
+      <c r="BF7" s="27"/>
+      <c r="BG7" s="27"/>
+      <c r="BH7" s="27"/>
+      <c r="BI7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="27" t="n">
@@ -20076,6 +24835,28 @@
       <c r="AH8" s="27"/>
       <c r="AI8" s="27"/>
       <c r="AJ8" s="27"/>
+      <c r="AW8" s="27"/>
+      <c r="AX8" s="27"/>
+      <c r="AY8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!J8</f>
+        <v>4</v>
+      </c>
+      <c r="AZ8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AH8</f>
+        <v>3</v>
+      </c>
+      <c r="BA8" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DZ8</f>
+        <v>2</v>
+      </c>
+      <c r="BB8" s="27"/>
+      <c r="BC8" s="27"/>
+      <c r="BD8" s="27"/>
+      <c r="BE8" s="27"/>
+      <c r="BF8" s="27"/>
+      <c r="BG8" s="27"/>
+      <c r="BH8" s="27"/>
+      <c r="BI8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="27" t="n">
@@ -20164,6 +24945,28 @@
       <c r="AH9" s="27"/>
       <c r="AI9" s="27"/>
       <c r="AJ9" s="27"/>
+      <c r="AW9" s="27"/>
+      <c r="AX9" s="27"/>
+      <c r="AY9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!J9</f>
+        <v>3</v>
+      </c>
+      <c r="AZ9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!AH9</f>
+        <v>2</v>
+      </c>
+      <c r="BA9" s="27" t="n">
+        <f aca="false">'Dobot_questionnaire_V2.0_same_taskset'!DZ9</f>
+        <v>2</v>
+      </c>
+      <c r="BB9" s="27"/>
+      <c r="BC9" s="27"/>
+      <c r="BD9" s="27"/>
+      <c r="BE9" s="27"/>
+      <c r="BF9" s="27"/>
+      <c r="BG9" s="27"/>
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="27"/>
@@ -20198,6 +25001,19 @@
       <c r="AH10" s="27"/>
       <c r="AI10" s="27"/>
       <c r="AJ10" s="27"/>
+      <c r="AW10" s="27"/>
+      <c r="AX10" s="27"/>
+      <c r="AY10" s="27"/>
+      <c r="AZ10" s="27"/>
+      <c r="BA10" s="27"/>
+      <c r="BB10" s="27"/>
+      <c r="BC10" s="27"/>
+      <c r="BD10" s="27"/>
+      <c r="BE10" s="27"/>
+      <c r="BF10" s="27"/>
+      <c r="BG10" s="27"/>
+      <c r="BH10" s="27"/>
+      <c r="BI10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="27"/>
@@ -20232,6 +25048,19 @@
       <c r="AH11" s="27"/>
       <c r="AI11" s="27"/>
       <c r="AJ11" s="27"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="27"/>
+      <c r="AZ11" s="27"/>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="27"/>
+      <c r="BC11" s="27"/>
+      <c r="BD11" s="27"/>
+      <c r="BE11" s="27"/>
+      <c r="BF11" s="27"/>
+      <c r="BG11" s="27"/>
+      <c r="BH11" s="27"/>
+      <c r="BI11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="27"/>
@@ -20266,61 +25095,74 @@
       <c r="AH12" s="27"/>
       <c r="AI12" s="27"/>
       <c r="AJ12" s="27"/>
+      <c r="AW12" s="27"/>
+      <c r="AX12" s="27"/>
+      <c r="AY12" s="27"/>
+      <c r="AZ12" s="27"/>
+      <c r="BA12" s="27"/>
+      <c r="BB12" s="27"/>
+      <c r="BC12" s="27"/>
+      <c r="BD12" s="27"/>
+      <c r="BE12" s="27"/>
+      <c r="BF12" s="27"/>
+      <c r="BG12" s="27"/>
+      <c r="BH12" s="27"/>
+      <c r="BI12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>318</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>318</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>318</v>
       </c>
       <c r="R13" s="27"/>
       <c r="S13" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T13" s="27" t="s">
         <v>319</v>
       </c>
       <c r="U13" s="27" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="V13" s="27" t="s">
         <v>318</v>
@@ -20331,10 +25173,10 @@
       <c r="Z13" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="AA13" s="31" t="s">
+      <c r="AA13" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AB13" s="31" t="s">
+      <c r="AB13" s="3" t="s">
         <v>322</v>
       </c>
       <c r="AC13" s="27"/>
@@ -20345,10 +25187,27 @@
       <c r="AH13" s="27"/>
       <c r="AI13" s="27"/>
       <c r="AJ13" s="27"/>
+      <c r="AY13" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="AZ13" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="BA13" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="BB13" s="27"/>
+      <c r="BC13" s="27"/>
+      <c r="BD13" s="27"/>
+      <c r="BE13" s="27"/>
+      <c r="BF13" s="27"/>
+      <c r="BG13" s="27"/>
+      <c r="BH13" s="27"/>
+      <c r="BI13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="n">
@@ -20445,10 +25304,30 @@
         <f aca="false">AVERAGE(AE2:AE9)</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY14" s="27" t="n">
+        <f aca="false">AVERAGE(AY2:AY9)</f>
+        <v>3</v>
+      </c>
+      <c r="AZ14" s="27" t="n">
+        <f aca="false">AVERAGE(AZ2:AZ9)</f>
+        <v>3.125</v>
+      </c>
+      <c r="BA14" s="27" t="n">
+        <f aca="false">AVERAGE(BA2:BA9)</f>
+        <v>1.625</v>
+      </c>
+      <c r="BB14" s="27"/>
+      <c r="BC14" s="27"/>
+      <c r="BD14" s="27"/>
+      <c r="BE14" s="27"/>
+      <c r="BF14" s="27"/>
+      <c r="BG14" s="27"/>
+      <c r="BH14" s="27"/>
+      <c r="BI14" s="27"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="n">
@@ -20518,10 +25397,21 @@
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
       <c r="AB15" s="27"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AY15" s="27"/>
+      <c r="AZ15" s="27"/>
+      <c r="BA15" s="27"/>
+      <c r="BB15" s="27"/>
+      <c r="BC15" s="27"/>
+      <c r="BD15" s="27"/>
+      <c r="BE15" s="27"/>
+      <c r="BF15" s="27"/>
+      <c r="BG15" s="27"/>
+      <c r="BH15" s="27"/>
+      <c r="BI15" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="n">
@@ -20591,10 +25481,21 @@
       <c r="Z16" s="27"/>
       <c r="AA16" s="27"/>
       <c r="AB16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="27"/>
+      <c r="BD16" s="27"/>
+      <c r="BE16" s="27"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="27"/>
+      <c r="BH16" s="27"/>
+      <c r="BI16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -20621,6 +25522,17 @@
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
       <c r="AB17" s="27"/>
+      <c r="AY17" s="27"/>
+      <c r="AZ17" s="27"/>
+      <c r="BA17" s="27"/>
+      <c r="BB17" s="27"/>
+      <c r="BC17" s="27"/>
+      <c r="BD17" s="27"/>
+      <c r="BE17" s="27"/>
+      <c r="BF17" s="27"/>
+      <c r="BG17" s="27"/>
+      <c r="BH17" s="27"/>
+      <c r="BI17" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -20642,13 +25554,14 @@
   </sheetPr>
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.25"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22130,13 +27043,14 @@
   </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23600,11 +28514,14 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -24044,11 +28961,14 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -24460,11 +29380,14 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -24870,11 +29793,14 @@
   </sheetPr>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -25587,11 +30513,14 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W3" activeCellId="0" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -26061,13 +30990,16 @@
     <tabColor rgb="FF99FF66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R59" activeCellId="0" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
@@ -26504,6 +31436,103 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
     </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
+        <f aca="false">AVERAGE(B3:B10)</f>
+        <v>2.125</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <f aca="false">AVERAGE(D3:D10)</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <f aca="false">AVERAGE(B48:B54)</f>
+        <v>2.28571428571429</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <f aca="false">AVERAGE(C48:C54)</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -26512,5 +31541,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>